--- a/outcome/appendix/forecast/HFMD.xlsx
+++ b/outcome/appendix/forecast/HFMD.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>34348.4362917531</v>
+        <v>34348.4363905939</v>
       </c>
       <c r="C2" t="n">
-        <v>18524.6367101949</v>
+        <v>18524.6367496193</v>
       </c>
       <c r="D2" t="n">
-        <v>12516.5203543226</v>
+        <v>12516.5203738343</v>
       </c>
       <c r="E2" t="n">
-        <v>56937.5628331662</v>
+        <v>56937.5630255572</v>
       </c>
       <c r="F2" t="n">
-        <v>71992.7376001421</v>
+        <v>71992.7378580667</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>28355</v>
       </c>
       <c r="I2" t="n">
-        <v>5993.43629175308</v>
+        <v>5993.43639059387</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>17224.9749612676</v>
+        <v>17224.9752629461</v>
       </c>
       <c r="C3" t="n">
-        <v>5300.40402424433</v>
+        <v>5300.40409886104</v>
       </c>
       <c r="D3" t="n">
-        <v>2135.20475325663</v>
+        <v>2135.20477511506</v>
       </c>
       <c r="E3" t="n">
-        <v>39359.3730787036</v>
+        <v>39359.3738340424</v>
       </c>
       <c r="F3" t="n">
-        <v>56141.5535682913</v>
+        <v>56141.5546783438</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>3263</v>
       </c>
       <c r="I3" t="n">
-        <v>13961.9749612676</v>
+        <v>13961.9752629461</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>44320.3831653139</v>
+        <v>44320.3844787673</v>
       </c>
       <c r="C4" t="n">
-        <v>18528.9411481056</v>
+        <v>18528.9417422667</v>
       </c>
       <c r="D4" t="n">
-        <v>10145.2043125685</v>
+        <v>10145.204660023</v>
       </c>
       <c r="E4" t="n">
-        <v>86066.885712057</v>
+        <v>86066.8881419171</v>
       </c>
       <c r="F4" t="n">
-        <v>115763.843216932</v>
+        <v>115763.846424219</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>2869</v>
       </c>
       <c r="I4" t="n">
-        <v>41451.3831653139</v>
+        <v>41451.3844787673</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>137343.044871064</v>
+        <v>137343.048688458</v>
       </c>
       <c r="C5" t="n">
-        <v>77029.161596983</v>
+        <v>77029.16389541</v>
       </c>
       <c r="D5" t="n">
-        <v>53598.3715889451</v>
+        <v>53598.3732694437</v>
       </c>
       <c r="E5" t="n">
-        <v>221710.312146515</v>
+        <v>221710.317998472</v>
       </c>
       <c r="F5" t="n">
-        <v>277311.513618066</v>
+        <v>277311.520777775</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>3001</v>
       </c>
       <c r="I5" t="n">
-        <v>134342.044871064</v>
+        <v>134342.048688458</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>293627.50051145</v>
+        <v>293627.504097877</v>
       </c>
       <c r="C6" t="n">
-        <v>188459.423070078</v>
+        <v>188459.425311891</v>
       </c>
       <c r="D6" t="n">
-        <v>144338.116865475</v>
+        <v>144338.118551043</v>
       </c>
       <c r="E6" t="n">
-        <v>430485.118754247</v>
+        <v>430485.124114376</v>
       </c>
       <c r="F6" t="n">
-        <v>517008.348130038</v>
+        <v>517008.354620511</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>3919</v>
       </c>
       <c r="I6" t="n">
-        <v>289708.50051145</v>
+        <v>289708.504097877</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>336409.640357235</v>
+        <v>336409.642940356</v>
       </c>
       <c r="C7" t="n">
-        <v>218469.404100027</v>
+        <v>218469.405725479</v>
       </c>
       <c r="D7" t="n">
-        <v>168664.342552596</v>
+        <v>168664.343780247</v>
       </c>
       <c r="E7" t="n">
-        <v>488900.373562027</v>
+        <v>488900.377403381</v>
       </c>
       <c r="F7" t="n">
-        <v>584936.992925314</v>
+        <v>584936.997566619</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>6260</v>
       </c>
       <c r="I7" t="n">
-        <v>330149.640357235</v>
+        <v>330149.642940356</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>270530.494419238</v>
+        <v>270530.499476241</v>
       </c>
       <c r="C8" t="n">
-        <v>167280.556290364</v>
+        <v>167280.559870971</v>
       </c>
       <c r="D8" t="n">
-        <v>124862.327763338</v>
+        <v>124862.330672385</v>
       </c>
       <c r="E8" t="n">
-        <v>407649.384687718</v>
+        <v>407649.391504138</v>
       </c>
       <c r="F8" t="n">
-        <v>495380.624811508</v>
+        <v>495380.632678521</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>59143</v>
       </c>
       <c r="I8" t="n">
-        <v>211387.494419238</v>
+        <v>211387.499476241</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>153472.264279636</v>
+        <v>153472.266972651</v>
       </c>
       <c r="C9" t="n">
-        <v>83018.5400731043</v>
+        <v>83018.5418964531</v>
       </c>
       <c r="D9" t="n">
-        <v>56220.875136998</v>
+        <v>56220.8765600479</v>
       </c>
       <c r="E9" t="n">
-        <v>253892.327602859</v>
+        <v>253892.331306478</v>
       </c>
       <c r="F9" t="n">
-        <v>320763.479412405</v>
+        <v>320763.483705455</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>59143</v>
       </c>
       <c r="I9" t="n">
-        <v>94329.2642796361</v>
+        <v>94329.2669726507</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>162226.967465218</v>
+        <v>162226.969490812</v>
       </c>
       <c r="C10" t="n">
-        <v>87842.8119102836</v>
+        <v>87842.8133801953</v>
       </c>
       <c r="D10" t="n">
-        <v>59533.4106127351</v>
+        <v>59533.4118005527</v>
       </c>
       <c r="E10" t="n">
-        <v>268194.00461034</v>
+        <v>268194.007195093</v>
       </c>
       <c r="F10" t="n">
-        <v>338738.82602283</v>
+        <v>338738.82889499</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>115170</v>
       </c>
       <c r="I10" t="n">
-        <v>47056.967465218</v>
+        <v>47056.9694908119</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>166317.675580673</v>
+        <v>166317.673536572</v>
       </c>
       <c r="C11" t="n">
-        <v>89520.490326561</v>
+        <v>89520.4891523852</v>
       </c>
       <c r="D11" t="n">
-        <v>60395.3607106112</v>
+        <v>60395.3598805034</v>
       </c>
       <c r="E11" t="n">
-        <v>276060.642588064</v>
+        <v>276060.63934756</v>
       </c>
       <c r="F11" t="n">
-        <v>349242.80267832</v>
+        <v>349242.798657028</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>199875</v>
       </c>
       <c r="I11" t="n">
-        <v>-33557.3244193272</v>
+        <v>-33557.3264634279</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>132545.675935106</v>
+        <v>132545.675586341</v>
       </c>
       <c r="C12" t="n">
-        <v>66356.4529971379</v>
+        <v>66356.4530132027</v>
       </c>
       <c r="D12" t="n">
-        <v>42312.5850397042</v>
+        <v>42312.5851467973</v>
       </c>
       <c r="E12" t="n">
-        <v>230682.355740253</v>
+        <v>230682.354708896</v>
       </c>
       <c r="F12" t="n">
-        <v>297436.215511991</v>
+        <v>297436.21396529</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>189017</v>
       </c>
       <c r="I12" t="n">
-        <v>-56471.3240648943</v>
+        <v>-56471.3244136593</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>95852.6504167855</v>
+        <v>95852.6505525153</v>
       </c>
       <c r="C13" t="n">
-        <v>42844.0796662643</v>
+        <v>42844.07998349</v>
       </c>
       <c r="D13" t="n">
-        <v>24875.9195989184</v>
+        <v>24875.919910893</v>
       </c>
       <c r="E13" t="n">
-        <v>178959.412597353</v>
+        <v>178959.412208303</v>
       </c>
       <c r="F13" t="n">
-        <v>237145.91473872</v>
+        <v>237145.913897287</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>131798</v>
       </c>
       <c r="I13" t="n">
-        <v>-35945.3495832145</v>
+        <v>-35945.3494474847</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>48636.2064239802</v>
+        <v>48636.2070025131</v>
       </c>
       <c r="C14" t="n">
-        <v>16202.7354442032</v>
+        <v>16202.7357963072</v>
       </c>
       <c r="D14" t="n">
-        <v>7114.18370013908</v>
+        <v>7114.18392844092</v>
       </c>
       <c r="E14" t="n">
-        <v>106822.655000505</v>
+        <v>106822.655736184</v>
       </c>
       <c r="F14" t="n">
-        <v>150273.276816453</v>
+        <v>150273.277585311</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>63209</v>
       </c>
       <c r="I14" t="n">
-        <v>-14572.7935760198</v>
+        <v>-14572.7929974869</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>19518.0147930247</v>
+        <v>19518.0157742592</v>
       </c>
       <c r="C15" t="n">
-        <v>3506.45380730678</v>
+        <v>3506.45413908745</v>
       </c>
       <c r="D15" t="n">
-        <v>662.483348258052</v>
+        <v>662.483463137206</v>
       </c>
       <c r="E15" t="n">
-        <v>56086.8031421764</v>
+        <v>56086.8050396445</v>
       </c>
       <c r="F15" t="n">
-        <v>86257.3767707138</v>
+        <v>86257.3792477674</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>18529</v>
       </c>
       <c r="I15" t="n">
-        <v>989.014793024711</v>
+        <v>989.015774259249</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>43476.3304781488</v>
+        <v>43476.3331879024</v>
       </c>
       <c r="C16" t="n">
-        <v>13029.5056829551</v>
+        <v>13029.5069293904</v>
       </c>
       <c r="D16" t="n">
-        <v>5094.53581906227</v>
+        <v>5094.53650006836</v>
       </c>
       <c r="E16" t="n">
-        <v>100624.24305732</v>
+        <v>100624.247715015</v>
       </c>
       <c r="F16" t="n">
-        <v>144165.509771296</v>
+        <v>144165.515647394</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>36206</v>
       </c>
       <c r="I16" t="n">
-        <v>7270.33047814885</v>
+        <v>7270.33318790235</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>133530.220571378</v>
+        <v>133530.226835044</v>
       </c>
       <c r="C17" t="n">
-        <v>62460.7764172241</v>
+        <v>62460.7802376996</v>
       </c>
       <c r="D17" t="n">
-        <v>37685.8837537308</v>
+        <v>37685.88650614</v>
       </c>
       <c r="E17" t="n">
-        <v>242515.266857902</v>
+        <v>242515.276105989</v>
       </c>
       <c r="F17" t="n">
-        <v>317964.517067392</v>
+        <v>317964.528110009</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>144167</v>
       </c>
       <c r="I17" t="n">
-        <v>-10636.779428622</v>
+        <v>-10636.7731649558</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>281960.622668809</v>
+        <v>281960.629423265</v>
       </c>
       <c r="C18" t="n">
-        <v>159247.784839449</v>
+        <v>159247.789471924</v>
       </c>
       <c r="D18" t="n">
-        <v>111382.236355442</v>
+        <v>111382.240017633</v>
       </c>
       <c r="E18" t="n">
-        <v>452984.531635487</v>
+        <v>452984.540886992</v>
       </c>
       <c r="F18" t="n">
-        <v>565465.74596589</v>
+        <v>565465.756690495</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>240838</v>
       </c>
       <c r="I18" t="n">
-        <v>41122.622668809</v>
+        <v>41122.6294232651</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>330243.895236102</v>
+        <v>330243.899925207</v>
       </c>
       <c r="C19" t="n">
-        <v>191455.253853507</v>
+        <v>191455.257114143</v>
       </c>
       <c r="D19" t="n">
-        <v>136495.399395492</v>
+        <v>136495.402000841</v>
       </c>
       <c r="E19" t="n">
-        <v>521028.965150322</v>
+        <v>521028.971517202</v>
       </c>
       <c r="F19" t="n">
-        <v>645539.902713548</v>
+        <v>645539.910069858</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>224426</v>
       </c>
       <c r="I19" t="n">
-        <v>105817.895236102</v>
+        <v>105817.899925207</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>282120.628184714</v>
+        <v>282120.630639717</v>
       </c>
       <c r="C20" t="n">
-        <v>156494.993285758</v>
+        <v>156494.994943012</v>
       </c>
       <c r="D20" t="n">
-        <v>108003.781769195</v>
+        <v>108003.783065133</v>
       </c>
       <c r="E20" t="n">
-        <v>458859.188267212</v>
+        <v>458859.191670733</v>
       </c>
       <c r="F20" t="n">
-        <v>575709.144209368</v>
+        <v>575709.148176309</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>162987</v>
       </c>
       <c r="I20" t="n">
-        <v>119133.628184714</v>
+        <v>119133.630639717</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>159705.541252318</v>
+        <v>159705.542546386</v>
       </c>
       <c r="C21" t="n">
-        <v>75206.6688205726</v>
+        <v>75206.6696131939</v>
       </c>
       <c r="D21" t="n">
-        <v>45629.2928205858</v>
+        <v>45629.2933936287</v>
       </c>
       <c r="E21" t="n">
-        <v>288859.140376538</v>
+        <v>288859.142282334</v>
       </c>
       <c r="F21" t="n">
-        <v>378119.454636421</v>
+        <v>378119.456909811</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>71283</v>
       </c>
       <c r="I21" t="n">
-        <v>88422.5412523177</v>
+        <v>88422.5425463861</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>165706.515987243</v>
+        <v>165706.517184341</v>
       </c>
       <c r="C22" t="n">
-        <v>78039.5619794062</v>
+        <v>78039.562722713</v>
       </c>
       <c r="D22" t="n">
-        <v>47351.5744970127</v>
+        <v>47351.5750383094</v>
       </c>
       <c r="E22" t="n">
-        <v>299696.521553802</v>
+        <v>299696.523292908</v>
       </c>
       <c r="F22" t="n">
-        <v>392297.257995039</v>
+        <v>392297.26005467</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>86635</v>
       </c>
       <c r="I22" t="n">
-        <v>79071.515987243</v>
+        <v>79071.5171843407</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>154138.233223411</v>
+        <v>154138.2343144</v>
       </c>
       <c r="C23" t="n">
-        <v>70145.5457262891</v>
+        <v>70145.5463990685</v>
       </c>
       <c r="D23" t="n">
-        <v>41356.3894428797</v>
+        <v>41356.3899276445</v>
       </c>
       <c r="E23" t="n">
-        <v>284681.080492253</v>
+        <v>284681.082073854</v>
       </c>
       <c r="F23" t="n">
-        <v>375677.276899548</v>
+        <v>375677.278766604</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>132070</v>
       </c>
       <c r="I23" t="n">
-        <v>22068.2332234106</v>
+        <v>22068.2343144002</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>121470.054778419</v>
+        <v>121470.056959872</v>
       </c>
       <c r="C24" t="n">
-        <v>50273.5860811236</v>
+        <v>50273.5873388998</v>
       </c>
       <c r="D24" t="n">
-        <v>27277.8195205495</v>
+        <v>27277.8203769884</v>
       </c>
       <c r="E24" t="n">
-        <v>237257.820979085</v>
+        <v>237257.824278683</v>
       </c>
       <c r="F24" t="n">
-        <v>319817.071148458</v>
+        <v>319817.075111149</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>113473</v>
       </c>
       <c r="I24" t="n">
-        <v>7997.054778419</v>
+        <v>7997.05695987186</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>85593.1187607686</v>
+        <v>85593.1210192471</v>
       </c>
       <c r="C25" t="n">
-        <v>30273.2251065612</v>
+        <v>30273.2262850752</v>
       </c>
       <c r="D25" t="n">
-        <v>14137.8078639058</v>
+        <v>14137.8085931071</v>
       </c>
       <c r="E25" t="n">
-        <v>182260.112798337</v>
+        <v>182260.116405031</v>
       </c>
       <c r="F25" t="n">
-        <v>253582.283769191</v>
+        <v>253582.288186851</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>74421</v>
       </c>
       <c r="I25" t="n">
-        <v>11172.1187607686</v>
+        <v>11172.1210192471</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>43395.7286988007</v>
+        <v>43395.7303631242</v>
       </c>
       <c r="C26" t="n">
-        <v>9920.21522047979</v>
+        <v>9920.21589689488</v>
       </c>
       <c r="D26" t="n">
-        <v>2748.05954564122</v>
+        <v>2748.05984953586</v>
       </c>
       <c r="E26" t="n">
-        <v>113412.347356662</v>
+        <v>113412.350291583</v>
       </c>
       <c r="F26" t="n">
-        <v>169233.96387138</v>
+        <v>169233.967564244</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>44183</v>
       </c>
       <c r="I26" t="n">
-        <v>-787.271301199267</v>
+        <v>-787.269636875826</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>17416.6137521041</v>
+        <v>17416.6151833449</v>
       </c>
       <c r="C27" t="n">
-        <v>1475.98251298095</v>
+        <v>1475.98281892087</v>
       </c>
       <c r="D27" t="n">
-        <v>30.29731217831</v>
+        <v>30.2973379588401</v>
       </c>
       <c r="E27" t="n">
-        <v>63254.3719854929</v>
+        <v>63254.3751215994</v>
       </c>
       <c r="F27" t="n">
-        <v>104230.565366335</v>
+        <v>104230.569585933</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>18134</v>
       </c>
       <c r="I27" t="n">
-        <v>-717.386247895851</v>
+        <v>-717.384816655132</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>40546.6085584225</v>
+        <v>40546.6119690316</v>
       </c>
       <c r="C28" t="n">
-        <v>7907.38931088008</v>
+        <v>7907.39055021129</v>
       </c>
       <c r="D28" t="n">
-        <v>1718.68501644552</v>
+        <v>1718.68549059162</v>
       </c>
       <c r="E28" t="n">
-        <v>112951.610979489</v>
+        <v>112951.61731381</v>
       </c>
       <c r="F28" t="n">
-        <v>172029.315291218</v>
+        <v>172029.323416511</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>33287</v>
       </c>
       <c r="I28" t="n">
-        <v>7259.60855842249</v>
+        <v>7259.61196903158</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>128057.692424224</v>
+        <v>128057.70017693</v>
       </c>
       <c r="C29" t="n">
-        <v>47516.2216652682</v>
+        <v>47516.2259382295</v>
       </c>
       <c r="D29" t="n">
-        <v>23270.2895259421</v>
+        <v>23270.2922849774</v>
       </c>
       <c r="E29" t="n">
-        <v>265805.675245564</v>
+        <v>265805.68711973</v>
       </c>
       <c r="F29" t="n">
-        <v>366425.074947624</v>
+        <v>366425.089203841</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>44794</v>
       </c>
       <c r="I29" t="n">
-        <v>83263.6924242237</v>
+        <v>83263.7001769298</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>273533.489378059</v>
+        <v>273533.498659906</v>
       </c>
       <c r="C30" t="n">
-        <v>131168.429121874</v>
+        <v>131168.435294973</v>
       </c>
       <c r="D30" t="n">
-        <v>80781.4238257493</v>
+        <v>80781.428496243</v>
       </c>
       <c r="E30" t="n">
-        <v>489194.155026189</v>
+        <v>489194.167616186</v>
       </c>
       <c r="F30" t="n">
-        <v>637551.385722556</v>
+        <v>637551.400087096</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>70042</v>
       </c>
       <c r="I30" t="n">
-        <v>203491.489378059</v>
+        <v>203491.498659906</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>321137.551152619</v>
+        <v>321137.558689847</v>
       </c>
       <c r="C31" t="n">
-        <v>159459.341676124</v>
+        <v>159459.346981608</v>
       </c>
       <c r="D31" t="n">
-        <v>101016.89983938</v>
+        <v>101016.903993254</v>
       </c>
       <c r="E31" t="n">
-        <v>561840.225555186</v>
+        <v>561840.235233127</v>
       </c>
       <c r="F31" t="n">
-        <v>725925.575209861</v>
+        <v>725925.585921925</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>140661</v>
       </c>
       <c r="I31" t="n">
-        <v>180476.551152619</v>
+        <v>180476.558689847</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>273988.109689117</v>
+        <v>273988.114741513</v>
       </c>
       <c r="C32" t="n">
-        <v>128236.026696091</v>
+        <v>128236.030286361</v>
       </c>
       <c r="D32" t="n">
-        <v>77408.7226670238</v>
+        <v>77408.725449918</v>
       </c>
       <c r="E32" t="n">
-        <v>497435.796898505</v>
+        <v>497435.803144704</v>
       </c>
       <c r="F32" t="n">
-        <v>652103.851622531</v>
+        <v>652103.858321754</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>108973</v>
       </c>
       <c r="I32" t="n">
-        <v>165015.109689117</v>
+        <v>165015.114741513</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>154103.66426339</v>
+        <v>154103.667353853</v>
       </c>
       <c r="C33" t="n">
-        <v>57715.4726026815</v>
+        <v>57715.4745720796</v>
       </c>
       <c r="D33" t="n">
-        <v>28521.9668027468</v>
+        <v>28521.9681644743</v>
       </c>
       <c r="E33" t="n">
-        <v>318260.439038948</v>
+        <v>318260.442991262</v>
       </c>
       <c r="F33" t="n">
-        <v>437932.557405378</v>
+        <v>437932.561625716</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>54528</v>
       </c>
       <c r="I33" t="n">
-        <v>99575.6642633903</v>
+        <v>99575.6673538526</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>159983.472693027</v>
+        <v>159983.475733428</v>
       </c>
       <c r="C34" t="n">
-        <v>59929.3215737466</v>
+        <v>59929.3235575314</v>
       </c>
       <c r="D34" t="n">
-        <v>29621.6208038641</v>
+        <v>29621.6221886554</v>
       </c>
       <c r="E34" t="n">
-        <v>330368.551456303</v>
+        <v>330368.55520654</v>
       </c>
       <c r="F34" t="n">
-        <v>454575.973167141</v>
+        <v>454575.97706007</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>44872</v>
       </c>
       <c r="I34" t="n">
-        <v>115111.472693027</v>
+        <v>115111.475733428</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>148682.772432475</v>
+        <v>148682.775282654</v>
       </c>
       <c r="C35" t="n">
-        <v>53122.9820705225</v>
+        <v>53122.9839103021</v>
       </c>
       <c r="D35" t="n">
-        <v>25062.7551373297</v>
+        <v>25062.7563932958</v>
       </c>
       <c r="E35" t="n">
-        <v>314913.753660519</v>
+        <v>314913.757121738</v>
       </c>
       <c r="F35" t="n">
-        <v>437305.129197701</v>
+        <v>437305.132717248</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>47395</v>
       </c>
       <c r="I35" t="n">
-        <v>101287.772432475</v>
+        <v>101287.775282654</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>116795.487226668</v>
+        <v>116795.49088187</v>
       </c>
       <c r="C36" t="n">
-        <v>36551.6442276709</v>
+        <v>36551.6462736767</v>
       </c>
       <c r="D36" t="n">
-        <v>15002.9800640838</v>
+        <v>15002.9813124412</v>
       </c>
       <c r="E36" t="n">
-        <v>264680.914717044</v>
+        <v>264680.919784196</v>
       </c>
       <c r="F36" t="n">
-        <v>376452.541942747</v>
+        <v>376452.547556818</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>50633</v>
       </c>
       <c r="I36" t="n">
-        <v>66162.4872266678</v>
+        <v>66162.4908818703</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>81866.7151823669</v>
+        <v>81866.7185935536</v>
       </c>
       <c r="C37" t="n">
-        <v>20474.1828511852</v>
+        <v>20474.1844829063</v>
       </c>
       <c r="D37" t="n">
-        <v>6413.5816530418</v>
+        <v>6413.58248540153</v>
       </c>
       <c r="E37" t="n">
-        <v>205884.639712556</v>
+        <v>205884.644863727</v>
       </c>
       <c r="F37" t="n">
-        <v>303368.482633297</v>
+        <v>303368.488550483</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>27747</v>
       </c>
       <c r="I37" t="n">
-        <v>54119.7151823669</v>
+        <v>54119.7185935536</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>40996.2304266101</v>
+        <v>40996.232811432</v>
       </c>
       <c r="C38" t="n">
-        <v>5393.62905404614</v>
+        <v>5393.62982020393</v>
       </c>
       <c r="D38" t="n">
-        <v>528.253161285274</v>
+        <v>528.253347654997</v>
       </c>
       <c r="E38" t="n">
-        <v>131139.028543259</v>
+        <v>131139.032661162</v>
       </c>
       <c r="F38" t="n">
-        <v>208349.622527243</v>
+        <v>208349.627419494</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>2484</v>
       </c>
       <c r="I38" t="n">
-        <v>38512.2304266101</v>
+        <v>38512.232811432</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>16090.8907623592</v>
+        <v>16090.8925506194</v>
       </c>
       <c r="C39" t="n">
-        <v>370.41329452987</v>
+        <v>370.41347673543</v>
       </c>
       <c r="D39" t="n">
-        <v>-57.0950684678994</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>75717.1849307773</v>
+        <v>75717.1890508276</v>
       </c>
       <c r="F39" t="n">
-        <v>133571.031098196</v>
+        <v>133571.036485813</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>3935</v>
       </c>
       <c r="I39" t="n">
-        <v>12155.8907623592</v>
+        <v>12155.8925506194</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>38250.6861860253</v>
+        <v>38250.690217577</v>
       </c>
       <c r="C40" t="n">
-        <v>4006.82444149642</v>
+        <v>4006.82550625877</v>
       </c>
       <c r="D40" t="n">
-        <v>200.575648843383</v>
+        <v>200.57581362327</v>
       </c>
       <c r="E40" t="n">
-        <v>131096.214927059</v>
+        <v>131096.222711813</v>
       </c>
       <c r="F40" t="n">
-        <v>212508.059023552</v>
+        <v>212508.068840437</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>9631</v>
       </c>
       <c r="I40" t="n">
-        <v>28619.6861860253</v>
+        <v>28619.690217577</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>123222.809215424</v>
+        <v>123222.818360516</v>
       </c>
       <c r="C41" t="n">
-        <v>33804.2660813254</v>
+        <v>33804.2705680394</v>
       </c>
       <c r="D41" t="n">
-        <v>11907.8224582796</v>
+        <v>11907.8248899596</v>
       </c>
       <c r="E41" t="n">
-        <v>297296.685380479</v>
+        <v>297296.699455555</v>
       </c>
       <c r="F41" t="n">
-        <v>432024.736101086</v>
+        <v>432024.752631945</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>20105</v>
       </c>
       <c r="I41" t="n">
-        <v>103117.809215424</v>
+        <v>103117.818360516</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>265639.444959031</v>
+        <v>265639.45665806</v>
       </c>
       <c r="C42" t="n">
-        <v>103747.584380231</v>
+        <v>103747.591883955</v>
       </c>
       <c r="D42" t="n">
-        <v>53362.4429360896</v>
+        <v>53362.4482147789</v>
       </c>
       <c r="E42" t="n">
-        <v>536123.28278021</v>
+        <v>536123.29796694</v>
       </c>
       <c r="F42" t="n">
-        <v>731521.140827791</v>
+        <v>731521.15731482</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>91259</v>
       </c>
       <c r="I42" t="n">
-        <v>174380.444959031</v>
+        <v>174380.45665806</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>312382.298450124</v>
+        <v>312382.30872894</v>
       </c>
       <c r="C43" t="n">
-        <v>127952.750331526</v>
+        <v>127952.757481317</v>
       </c>
       <c r="D43" t="n">
-        <v>68775.3333840947</v>
+        <v>68775.3386647792</v>
       </c>
       <c r="E43" t="n">
-        <v>613785.929410246</v>
+        <v>613785.94156142</v>
       </c>
       <c r="F43" t="n">
-        <v>829205.498249083</v>
+        <v>829205.510607951</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>433084</v>
       </c>
       <c r="I43" t="n">
-        <v>-120701.701549876</v>
+        <v>-120701.69127106</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>266085.624591368</v>
+        <v>266085.632142584</v>
       </c>
       <c r="C44" t="n">
-        <v>100772.246851245</v>
+        <v>100772.252137127</v>
       </c>
       <c r="D44" t="n">
-        <v>50338.0166189283</v>
+        <v>50338.020423518</v>
       </c>
       <c r="E44" t="n">
-        <v>546205.149822925</v>
+        <v>546205.158142003</v>
       </c>
       <c r="F44" t="n">
-        <v>749926.987631814</v>
+        <v>749926.9954513</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>457212</v>
       </c>
       <c r="I44" t="n">
-        <v>-191126.375408632</v>
+        <v>-191126.367857416</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>148654.173093196</v>
+        <v>148654.177897173</v>
       </c>
       <c r="C45" t="n">
-        <v>41552.3286014784</v>
+        <v>41552.3314634338</v>
       </c>
       <c r="D45" t="n">
-        <v>14973.5493519286</v>
+        <v>14973.5510421865</v>
       </c>
       <c r="E45" t="n">
-        <v>355565.96544918</v>
+        <v>355565.97091075</v>
       </c>
       <c r="F45" t="n">
-        <v>515189.532493468</v>
+        <v>515189.537442955</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>193538</v>
       </c>
       <c r="I45" t="n">
-        <v>-44883.8269068038</v>
+        <v>-44883.822102827</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>154400.510955491</v>
+        <v>154400.515755454</v>
       </c>
       <c r="C46" t="n">
-        <v>43218.7633575017</v>
+        <v>43218.7662810251</v>
       </c>
       <c r="D46" t="n">
-        <v>15600.1934063352</v>
+        <v>15600.1951473244</v>
       </c>
       <c r="E46" t="n">
-        <v>369071.875985598</v>
+        <v>369071.881196983</v>
       </c>
       <c r="F46" t="n">
-        <v>534641.284173077</v>
+        <v>534641.288643503</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>166980</v>
       </c>
       <c r="I46" t="n">
-        <v>-12579.4890445092</v>
+        <v>-12579.4842445458</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>143357.952961712</v>
+        <v>143357.957488981</v>
       </c>
       <c r="C47" t="n">
-        <v>37610.4937869586</v>
+        <v>37610.4964780499</v>
       </c>
       <c r="D47" t="n">
-        <v>12532.8165002218</v>
+        <v>12532.8180313279</v>
       </c>
       <c r="E47" t="n">
-        <v>352959.394266494</v>
+        <v>352959.399082249</v>
       </c>
       <c r="F47" t="n">
-        <v>516420.740078118</v>
+        <v>516420.744024588</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>165527</v>
       </c>
       <c r="I47" t="n">
-        <v>-22169.0470382884</v>
+        <v>-22169.0425110194</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>112240.035554696</v>
+        <v>112240.040607316</v>
       </c>
       <c r="C48" t="n">
-        <v>24451.3069045771</v>
+        <v>24451.3094187842</v>
       </c>
       <c r="D48" t="n">
-        <v>6315.98229763969</v>
+        <v>6315.98348839746</v>
       </c>
       <c r="E48" t="n">
-        <v>299228.092165336</v>
+        <v>299228.098576838</v>
       </c>
       <c r="F48" t="n">
-        <v>449393.697069654</v>
+        <v>449393.703283024</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>92955</v>
       </c>
       <c r="I48" t="n">
-        <v>19285.0355546964</v>
+        <v>19285.0406073161</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>78246.8629246349</v>
+        <v>78246.8674197792</v>
       </c>
       <c r="C49" t="n">
-        <v>12318.3602879951</v>
+        <v>12318.3620733828</v>
       </c>
       <c r="D49" t="n">
-        <v>1810.3894124126</v>
+        <v>1810.38999756717</v>
       </c>
       <c r="E49" t="n">
-        <v>235767.507542033</v>
+        <v>235767.513914368</v>
       </c>
       <c r="F49" t="n">
-        <v>367920.043961187</v>
+        <v>367920.050500731</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>46150</v>
       </c>
       <c r="I49" t="n">
-        <v>32096.8629246349</v>
+        <v>32096.8674197792</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/HFMD.xlsx
+++ b/outcome/appendix/forecast/HFMD.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>34348.4363905939</v>
+        <v>40164.007155695</v>
       </c>
       <c r="C2" t="n">
-        <v>18524.6367496193</v>
+        <v>16969.3616152968</v>
       </c>
       <c r="D2" t="n">
-        <v>12516.5203738343</v>
+        <v>11567.1808221565</v>
       </c>
       <c r="E2" t="n">
-        <v>56937.5630255572</v>
+        <v>88508.248066381</v>
       </c>
       <c r="F2" t="n">
-        <v>71992.7378580667</v>
+        <v>106286.78312479</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>28355</v>
       </c>
       <c r="I2" t="n">
-        <v>5993.43639059387</v>
+        <v>11809.007155695</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>17224.9752629461</v>
+        <v>26625.9557901002</v>
       </c>
       <c r="C3" t="n">
-        <v>5300.40409886104</v>
+        <v>3029.89708128877</v>
       </c>
       <c r="D3" t="n">
-        <v>2135.20477511506</v>
+        <v>1047.19818451228</v>
       </c>
       <c r="E3" t="n">
-        <v>39359.3738340424</v>
+        <v>103253.561032738</v>
       </c>
       <c r="F3" t="n">
-        <v>56141.5546783438</v>
+        <v>131814.405603026</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>3263</v>
       </c>
       <c r="I3" t="n">
-        <v>13961.9752629461</v>
+        <v>23362.9557901002</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>44320.3844787673</v>
+        <v>49881.2970433362</v>
       </c>
       <c r="C4" t="n">
-        <v>18528.9417422667</v>
+        <v>11293.6214742715</v>
       </c>
       <c r="D4" t="n">
-        <v>10145.204660023</v>
+        <v>5224.26189745484</v>
       </c>
       <c r="E4" t="n">
-        <v>86066.8881419171</v>
+        <v>117881.484039125</v>
       </c>
       <c r="F4" t="n">
-        <v>115763.846424219</v>
+        <v>147966.380383094</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>2869</v>
       </c>
       <c r="I4" t="n">
-        <v>41451.3844787673</v>
+        <v>47012.2970433362</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>137343.048688458</v>
+        <v>134292.632732626</v>
       </c>
       <c r="C5" t="n">
-        <v>77029.16389541</v>
+        <v>53361.7718949051</v>
       </c>
       <c r="D5" t="n">
-        <v>53598.3732694437</v>
+        <v>32843.3827736194</v>
       </c>
       <c r="E5" t="n">
-        <v>221710.317998472</v>
+        <v>282700.183294278</v>
       </c>
       <c r="F5" t="n">
-        <v>277311.520777775</v>
+        <v>368807.177469479</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>3001</v>
       </c>
       <c r="I5" t="n">
-        <v>134342.048688458</v>
+        <v>131291.632732626</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>293627.504097877</v>
+        <v>258921.528619012</v>
       </c>
       <c r="C6" t="n">
-        <v>188459.425311891</v>
+        <v>124915.021401074</v>
       </c>
       <c r="D6" t="n">
-        <v>144338.118551043</v>
+        <v>84280.3529282507</v>
       </c>
       <c r="E6" t="n">
-        <v>430485.124114376</v>
+        <v>488602.374451588</v>
       </c>
       <c r="F6" t="n">
-        <v>517008.354620511</v>
+        <v>624448.189982371</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>3919</v>
       </c>
       <c r="I6" t="n">
-        <v>289708.504097877</v>
+        <v>255002.528619012</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>336409.642940356</v>
+        <v>299995.331334834</v>
       </c>
       <c r="C7" t="n">
-        <v>218469.405725479</v>
+        <v>139467.618027384</v>
       </c>
       <c r="D7" t="n">
-        <v>168664.343780247</v>
+        <v>90379.4922959343</v>
       </c>
       <c r="E7" t="n">
-        <v>488900.377403381</v>
+        <v>526330.809119341</v>
       </c>
       <c r="F7" t="n">
-        <v>584936.997566619</v>
+        <v>683255.124450596</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>6260</v>
       </c>
       <c r="I7" t="n">
-        <v>330149.642940356</v>
+        <v>293735.331334834</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>270530.499476241</v>
+        <v>255273.549027337</v>
       </c>
       <c r="C8" t="n">
-        <v>167280.559870971</v>
+        <v>97563.4798726928</v>
       </c>
       <c r="D8" t="n">
-        <v>124862.330672385</v>
+        <v>55925.2923822917</v>
       </c>
       <c r="E8" t="n">
-        <v>407649.391504138</v>
+        <v>460725.257801962</v>
       </c>
       <c r="F8" t="n">
-        <v>495380.632678521</v>
+        <v>618097.129439827</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>59143</v>
       </c>
       <c r="I8" t="n">
-        <v>211387.499476241</v>
+        <v>196130.549027337</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>153472.266972651</v>
+        <v>159590.665364349</v>
       </c>
       <c r="C9" t="n">
-        <v>83018.5418964531</v>
+        <v>37221.7066070934</v>
       </c>
       <c r="D9" t="n">
-        <v>56220.8765600479</v>
+        <v>16138.656264602</v>
       </c>
       <c r="E9" t="n">
-        <v>253892.331306478</v>
+        <v>329302.287149674</v>
       </c>
       <c r="F9" t="n">
-        <v>320763.483705455</v>
+        <v>443375.369413727</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>59143</v>
       </c>
       <c r="I9" t="n">
-        <v>94329.2669726507</v>
+        <v>100447.665364349</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>162226.969490812</v>
+        <v>155312.503860583</v>
       </c>
       <c r="C10" t="n">
-        <v>87842.8133801953</v>
+        <v>37904.9106667436</v>
       </c>
       <c r="D10" t="n">
-        <v>59533.4118005527</v>
+        <v>15059.605528539</v>
       </c>
       <c r="E10" t="n">
-        <v>268194.007195093</v>
+        <v>337736.636405464</v>
       </c>
       <c r="F10" t="n">
-        <v>338738.82889499</v>
+        <v>487690.388469572</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>115170</v>
       </c>
       <c r="I10" t="n">
-        <v>47056.9694908119</v>
+        <v>40142.5038605834</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>166317.673536572</v>
+        <v>140381.831438838</v>
       </c>
       <c r="C11" t="n">
-        <v>89520.4891523852</v>
+        <v>33218.8968124578</v>
       </c>
       <c r="D11" t="n">
-        <v>60395.3598805034</v>
+        <v>11766.4198281533</v>
       </c>
       <c r="E11" t="n">
-        <v>276060.63934756</v>
+        <v>345896.125466686</v>
       </c>
       <c r="F11" t="n">
-        <v>349242.798657028</v>
+        <v>507278.451252376</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>199875</v>
       </c>
       <c r="I11" t="n">
-        <v>-33557.3264634279</v>
+        <v>-59493.1685611619</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>132545.675586341</v>
+        <v>117622.476129339</v>
       </c>
       <c r="C12" t="n">
-        <v>66356.4530132027</v>
+        <v>20796.1922696631</v>
       </c>
       <c r="D12" t="n">
-        <v>42312.5851467973</v>
+        <v>5736.18078771595</v>
       </c>
       <c r="E12" t="n">
-        <v>230682.354708896</v>
+        <v>339646.089385044</v>
       </c>
       <c r="F12" t="n">
-        <v>297436.21396529</v>
+        <v>508107.931084985</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>189017</v>
       </c>
       <c r="I12" t="n">
-        <v>-56471.3244136593</v>
+        <v>-71394.5238706613</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>95852.6505525153</v>
+        <v>88368.9785223465</v>
       </c>
       <c r="C13" t="n">
-        <v>42844.07998349</v>
+        <v>9900.17579102057</v>
       </c>
       <c r="D13" t="n">
-        <v>24875.919910893</v>
+        <v>1403.28263465793</v>
       </c>
       <c r="E13" t="n">
-        <v>178959.412208303</v>
+        <v>286873.919977147</v>
       </c>
       <c r="F13" t="n">
-        <v>237145.913897287</v>
+        <v>447035.333599185</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>131798</v>
       </c>
       <c r="I13" t="n">
-        <v>-35945.3494474847</v>
+        <v>-43429.0214776535</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>48636.2070025131</v>
+        <v>51637.3549194063</v>
       </c>
       <c r="C14" t="n">
-        <v>16202.7357963072</v>
+        <v>1451.44520281947</v>
       </c>
       <c r="D14" t="n">
-        <v>7114.18392844092</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>106822.655736184</v>
+        <v>206882.819653564</v>
       </c>
       <c r="F14" t="n">
-        <v>150273.277585311</v>
+        <v>345383.092816158</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>63209</v>
       </c>
       <c r="I14" t="n">
-        <v>-14572.7929974869</v>
+        <v>-11571.6450805937</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>19518.0157742592</v>
+        <v>29942.6114836473</v>
       </c>
       <c r="C15" t="n">
-        <v>3506.45413908745</v>
+        <v>0.166445454470808</v>
       </c>
       <c r="D15" t="n">
-        <v>662.483463137206</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>56086.8050396445</v>
+        <v>157301.858550025</v>
       </c>
       <c r="F15" t="n">
-        <v>86257.3792477674</v>
+        <v>280794.108007456</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>18529</v>
       </c>
       <c r="I15" t="n">
-        <v>989.015774259249</v>
+        <v>11413.6114836473</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>43476.3331879024</v>
+        <v>61585.8915629287</v>
       </c>
       <c r="C16" t="n">
-        <v>13029.5069293904</v>
+        <v>1155.98843299379</v>
       </c>
       <c r="D16" t="n">
-        <v>5094.53650006836</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>100624.247715015</v>
+        <v>282281.326704613</v>
       </c>
       <c r="F16" t="n">
-        <v>144165.515647394</v>
+        <v>462745.531030342</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>36206</v>
       </c>
       <c r="I16" t="n">
-        <v>7270.33318790235</v>
+        <v>25379.8915629287</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>133530.226835044</v>
+        <v>158519.798566305</v>
       </c>
       <c r="C17" t="n">
-        <v>62460.7802376996</v>
+        <v>19776.7665234654</v>
       </c>
       <c r="D17" t="n">
-        <v>37685.88650614</v>
+        <v>3660.22043868491</v>
       </c>
       <c r="E17" t="n">
-        <v>242515.276105989</v>
+        <v>563584.469972411</v>
       </c>
       <c r="F17" t="n">
-        <v>317964.528110009</v>
+        <v>845133.102821592</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,10 +928,10 @@
         <v>144167</v>
       </c>
       <c r="I17" t="n">
-        <v>-10636.7731649558</v>
+        <v>14352.7985663046</v>
       </c>
       <c r="J17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>281960.629423265</v>
+        <v>294699.799952628</v>
       </c>
       <c r="C18" t="n">
-        <v>159247.789471924</v>
+        <v>65076.5482224243</v>
       </c>
       <c r="D18" t="n">
-        <v>111382.240017633</v>
+        <v>23542.6807768859</v>
       </c>
       <c r="E18" t="n">
-        <v>452984.540886992</v>
+        <v>854625.961345106</v>
       </c>
       <c r="F18" t="n">
-        <v>565465.756690495</v>
+        <v>1228220.07471775</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>240838</v>
       </c>
       <c r="I18" t="n">
-        <v>41122.6294232651</v>
+        <v>53861.7999526284</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>330243.899925207</v>
+        <v>334503.028863074</v>
       </c>
       <c r="C19" t="n">
-        <v>191455.257114143</v>
+        <v>77356.3737302722</v>
       </c>
       <c r="D19" t="n">
-        <v>136495.402000841</v>
+        <v>29125.43585501</v>
       </c>
       <c r="E19" t="n">
-        <v>521028.971517202</v>
+        <v>893727.39709272</v>
       </c>
       <c r="F19" t="n">
-        <v>645539.910069858</v>
+        <v>1289967.75544624</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>224426</v>
       </c>
       <c r="I19" t="n">
-        <v>105817.899925207</v>
+        <v>110077.028863074</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>282120.630639717</v>
+        <v>277915.945017621</v>
       </c>
       <c r="C20" t="n">
-        <v>156494.994943012</v>
+        <v>51117.9485255163</v>
       </c>
       <c r="D20" t="n">
-        <v>108003.783065133</v>
+        <v>15239.157724697</v>
       </c>
       <c r="E20" t="n">
-        <v>458859.191670733</v>
+        <v>789331.660765911</v>
       </c>
       <c r="F20" t="n">
-        <v>575709.148176309</v>
+        <v>1168580.04126103</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>162987</v>
       </c>
       <c r="I20" t="n">
-        <v>119133.630639717</v>
+        <v>114928.945017621</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>159705.542546386</v>
+        <v>171737.243858548</v>
       </c>
       <c r="C21" t="n">
-        <v>75206.6696131939</v>
+        <v>14876.9129205413</v>
       </c>
       <c r="D21" t="n">
-        <v>45629.2933936287</v>
+        <v>1491.47207370979</v>
       </c>
       <c r="E21" t="n">
-        <v>288859.142282334</v>
+        <v>563631.808531966</v>
       </c>
       <c r="F21" t="n">
-        <v>378119.456909811</v>
+        <v>883429.315163154</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>71283</v>
       </c>
       <c r="I21" t="n">
-        <v>88422.5425463861</v>
+        <v>100454.243858548</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>165706.517184341</v>
+        <v>168312.626334173</v>
       </c>
       <c r="C22" t="n">
-        <v>78039.562722713</v>
+        <v>15873.1881741792</v>
       </c>
       <c r="D22" t="n">
-        <v>47351.5750383094</v>
+        <v>1584.82825113166</v>
       </c>
       <c r="E22" t="n">
-        <v>299696.523292908</v>
+        <v>596743.788271478</v>
       </c>
       <c r="F22" t="n">
-        <v>392297.26005467</v>
+        <v>936890.356788686</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>86635</v>
       </c>
       <c r="I22" t="n">
-        <v>79071.5171843407</v>
+        <v>81677.6263341728</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>154138.2343144</v>
+        <v>153166.350753464</v>
       </c>
       <c r="C23" t="n">
-        <v>70145.5463990685</v>
+        <v>13735.3302146054</v>
       </c>
       <c r="D23" t="n">
-        <v>41356.3899276445</v>
+        <v>1022.41793905667</v>
       </c>
       <c r="E23" t="n">
-        <v>284681.082073854</v>
+        <v>601894.957924291</v>
       </c>
       <c r="F23" t="n">
-        <v>375677.278766604</v>
+        <v>953044.700134786</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>132070</v>
       </c>
       <c r="I23" t="n">
-        <v>22068.2343144002</v>
+        <v>21096.3507534642</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>121470.056959872</v>
+        <v>131038.369567319</v>
       </c>
       <c r="C24" t="n">
-        <v>50273.5873388998</v>
+        <v>7367.72624024737</v>
       </c>
       <c r="D24" t="n">
-        <v>27277.8203769884</v>
+        <v>116.261527877653</v>
       </c>
       <c r="E24" t="n">
-        <v>237257.824278683</v>
+        <v>587136.964356816</v>
       </c>
       <c r="F24" t="n">
-        <v>319817.075111149</v>
+        <v>942199.392877609</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>113473</v>
       </c>
       <c r="I24" t="n">
-        <v>7997.05695987186</v>
+        <v>17565.3695673191</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>85593.1210192471</v>
+        <v>100733.581364989</v>
       </c>
       <c r="C25" t="n">
-        <v>30273.2262850752</v>
+        <v>2459.45770717749</v>
       </c>
       <c r="D25" t="n">
-        <v>14137.8085931071</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>182260.116405031</v>
+        <v>506619.058231529</v>
       </c>
       <c r="F25" t="n">
-        <v>253582.288186851</v>
+        <v>840496.017682454</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>74421</v>
       </c>
       <c r="I25" t="n">
-        <v>11172.1210192471</v>
+        <v>26312.5813649895</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>43395.7303631242</v>
+        <v>61120.5974950398</v>
       </c>
       <c r="C26" t="n">
-        <v>9920.21589689488</v>
+        <v>27.4305813201427</v>
       </c>
       <c r="D26" t="n">
-        <v>2748.05984953586</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>113412.350291583</v>
+        <v>385493.05468253</v>
       </c>
       <c r="F26" t="n">
-        <v>169233.967564244</v>
+        <v>677415.36284662</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,10 +1216,10 @@
         <v>44183</v>
       </c>
       <c r="I26" t="n">
-        <v>-787.269636875826</v>
+        <v>16937.5974950398</v>
       </c>
       <c r="J26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>17416.6151833449</v>
+        <v>35333.1600064059</v>
       </c>
       <c r="C27" t="n">
-        <v>1475.98281892087</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>30.2973379588401</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>63254.3751215994</v>
+        <v>307353.915631135</v>
       </c>
       <c r="F27" t="n">
-        <v>104230.569585933</v>
+        <v>569835.870502788</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,10 +1248,10 @@
         <v>18134</v>
       </c>
       <c r="I27" t="n">
-        <v>-717.384816655132</v>
+        <v>17199.1600064059</v>
       </c>
       <c r="J27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>40546.6119690316</v>
+        <v>71159.7373402074</v>
       </c>
       <c r="C28" t="n">
-        <v>7907.39055021129</v>
+        <v>16.6480962398356</v>
       </c>
       <c r="D28" t="n">
-        <v>1718.68549059162</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>112951.61731381</v>
+        <v>488126.671218424</v>
       </c>
       <c r="F28" t="n">
-        <v>172029.323416511</v>
+        <v>838267.045081236</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>33287</v>
       </c>
       <c r="I28" t="n">
-        <v>7259.61196903158</v>
+        <v>37872.7373402074</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>128057.70017693</v>
+        <v>174372.104420504</v>
       </c>
       <c r="C29" t="n">
-        <v>47516.2259382295</v>
+        <v>8025.99920216501</v>
       </c>
       <c r="D29" t="n">
-        <v>23270.2922849774</v>
+        <v>59.1068613573625</v>
       </c>
       <c r="E29" t="n">
-        <v>265805.68711973</v>
+        <v>867158.58572206</v>
       </c>
       <c r="F29" t="n">
-        <v>366425.089203841</v>
+        <v>1367398.3096196</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>44794</v>
       </c>
       <c r="I29" t="n">
-        <v>83263.7001769298</v>
+        <v>129578.104420504</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>273533.498659906</v>
+        <v>313060.055632862</v>
       </c>
       <c r="C30" t="n">
-        <v>131168.435294973</v>
+        <v>37887.1625174603</v>
       </c>
       <c r="D30" t="n">
-        <v>80781.428496243</v>
+        <v>5988.46814492595</v>
       </c>
       <c r="E30" t="n">
-        <v>489194.167616186</v>
+        <v>1237912.78371872</v>
       </c>
       <c r="F30" t="n">
-        <v>637551.400087096</v>
+        <v>1867914.99079664</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>70042</v>
       </c>
       <c r="I30" t="n">
-        <v>203491.498659906</v>
+        <v>243018.055632862</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>321137.558689847</v>
+        <v>351338.174680075</v>
       </c>
       <c r="C31" t="n">
-        <v>159459.346981608</v>
+        <v>47231.5228150507</v>
       </c>
       <c r="D31" t="n">
-        <v>101016.903993254</v>
+        <v>8697.63787293184</v>
       </c>
       <c r="E31" t="n">
-        <v>561840.235233127</v>
+        <v>1282040.17093755</v>
       </c>
       <c r="F31" t="n">
-        <v>725925.585921925</v>
+        <v>1937812.57948955</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>140661</v>
       </c>
       <c r="I31" t="n">
-        <v>180476.558689847</v>
+        <v>210677.174680075</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>273988.114741513</v>
+        <v>293118.540852616</v>
       </c>
       <c r="C32" t="n">
-        <v>128236.030286361</v>
+        <v>28979.0084271612</v>
       </c>
       <c r="D32" t="n">
-        <v>77408.725449918</v>
+        <v>3113.74877502349</v>
       </c>
       <c r="E32" t="n">
-        <v>497435.803144704</v>
+        <v>1145104.12002106</v>
       </c>
       <c r="F32" t="n">
-        <v>652103.858321754</v>
+        <v>1770009.57862407</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>108973</v>
       </c>
       <c r="I32" t="n">
-        <v>165015.114741513</v>
+        <v>184145.540852616</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>154103.667353853</v>
+        <v>184367.304598676</v>
       </c>
       <c r="C33" t="n">
-        <v>57715.4745720796</v>
+        <v>5936.08830935258</v>
       </c>
       <c r="D33" t="n">
-        <v>28521.9681644743</v>
+        <v>0.0436919456946547</v>
       </c>
       <c r="E33" t="n">
-        <v>318260.442991262</v>
+        <v>851048.842954823</v>
       </c>
       <c r="F33" t="n">
-        <v>437932.561625716</v>
+        <v>1385560.70209569</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>54528</v>
       </c>
       <c r="I33" t="n">
-        <v>99575.6673538526</v>
+        <v>129839.304598676</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>159983.475733428</v>
+        <v>181208.36783591</v>
       </c>
       <c r="C34" t="n">
-        <v>59929.3235575314</v>
+        <v>6624.767915963</v>
       </c>
       <c r="D34" t="n">
-        <v>29621.6221886554</v>
+        <v>0.704329429384888</v>
       </c>
       <c r="E34" t="n">
-        <v>330368.55520654</v>
+        <v>890555.753447213</v>
       </c>
       <c r="F34" t="n">
-        <v>454575.97706007</v>
+        <v>1449358.7892403</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>44872</v>
       </c>
       <c r="I34" t="n">
-        <v>115111.475733428</v>
+        <v>136336.36783591</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>148682.775282654</v>
+        <v>166300.075249728</v>
       </c>
       <c r="C35" t="n">
-        <v>53122.9839103021</v>
+        <v>5536.39051589146</v>
       </c>
       <c r="D35" t="n">
-        <v>25062.7563932958</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>314913.757121738</v>
+        <v>893879.812554028</v>
       </c>
       <c r="F35" t="n">
-        <v>437305.132717248</v>
+        <v>1463717.2646423</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>47395</v>
       </c>
       <c r="I35" t="n">
-        <v>101287.775282654</v>
+        <v>118905.075249728</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>116795.49088187</v>
+        <v>144293.546605781</v>
       </c>
       <c r="C36" t="n">
-        <v>36551.6462736767</v>
+        <v>2299.82069790093</v>
       </c>
       <c r="D36" t="n">
-        <v>15002.9813124412</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>264680.919784196</v>
+        <v>871732.394370055</v>
       </c>
       <c r="F36" t="n">
-        <v>376452.547556818</v>
+        <v>1442863.91156126</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>50633</v>
       </c>
       <c r="I36" t="n">
-        <v>66162.4908818703</v>
+        <v>93660.546605781</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>81866.7185935536</v>
+        <v>112414.472260467</v>
       </c>
       <c r="C37" t="n">
-        <v>20474.1844829063</v>
+        <v>362.552952218904</v>
       </c>
       <c r="D37" t="n">
-        <v>6413.58248540153</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>205884.644863727</v>
+        <v>764606.656348293</v>
       </c>
       <c r="F37" t="n">
-        <v>303368.488550483</v>
+        <v>1302637.07199737</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>27747</v>
       </c>
       <c r="I37" t="n">
-        <v>54119.7185935536</v>
+        <v>84667.4722604672</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>40996.232811432</v>
+        <v>70705.5951116476</v>
       </c>
       <c r="C38" t="n">
-        <v>5393.62982020393</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>528.253347654997</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>131139.032661162</v>
+        <v>602759.758915921</v>
       </c>
       <c r="F38" t="n">
-        <v>208349.627419494</v>
+        <v>1079514.97632809</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>2484</v>
       </c>
       <c r="I38" t="n">
-        <v>38512.232811432</v>
+        <v>68221.5951116476</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>16090.8925506194</v>
+        <v>42669.2488443306</v>
       </c>
       <c r="C39" t="n">
-        <v>370.41347673543</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>75717.1890508276</v>
+        <v>495685.484369032</v>
       </c>
       <c r="F39" t="n">
-        <v>133571.036485813</v>
+        <v>928951.433697405</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>3935</v>
       </c>
       <c r="I39" t="n">
-        <v>12155.8925506194</v>
+        <v>38734.2488443306</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>38250.690217577</v>
+        <v>82579.8193242406</v>
       </c>
       <c r="C40" t="n">
-        <v>4006.82550625877</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>200.57581362327</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>131096.222711813</v>
+        <v>733327.610892229</v>
       </c>
       <c r="F40" t="n">
-        <v>212508.068840437</v>
+        <v>1283995.98263997</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>9631</v>
       </c>
       <c r="I40" t="n">
-        <v>28619.690217577</v>
+        <v>72948.8193242406</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>123222.818360516</v>
+        <v>192924.751425835</v>
       </c>
       <c r="C41" t="n">
-        <v>33804.2705680394</v>
+        <v>2906.22644962133</v>
       </c>
       <c r="D41" t="n">
-        <v>11907.8248899596</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>297296.699455555</v>
+        <v>1210115.22805856</v>
       </c>
       <c r="F41" t="n">
-        <v>432024.752631945</v>
+        <v>1957912.05827758</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>20105</v>
       </c>
       <c r="I41" t="n">
-        <v>103117.818360516</v>
+        <v>172819.751425835</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>265639.45665806</v>
+        <v>337293.587625331</v>
       </c>
       <c r="C42" t="n">
-        <v>103747.591883955</v>
+        <v>22332.6941477881</v>
       </c>
       <c r="D42" t="n">
-        <v>53362.4482147789</v>
+        <v>815.480607813118</v>
       </c>
       <c r="E42" t="n">
-        <v>536123.29796694</v>
+        <v>1659882.89876531</v>
       </c>
       <c r="F42" t="n">
-        <v>731521.15731482</v>
+        <v>2573429.25942206</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>91259</v>
       </c>
       <c r="I42" t="n">
-        <v>174380.45665806</v>
+        <v>246034.587625331</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>312382.30872894</v>
+        <v>375732.751640509</v>
       </c>
       <c r="C43" t="n">
-        <v>127952.757481317</v>
+        <v>29305.9672301651</v>
       </c>
       <c r="D43" t="n">
-        <v>68775.3386647792</v>
+        <v>1721.08142722362</v>
       </c>
       <c r="E43" t="n">
-        <v>613785.94156142</v>
+        <v>1709696.66548323</v>
       </c>
       <c r="F43" t="n">
-        <v>829205.510607951</v>
+        <v>2652290.93848246</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>433084</v>
       </c>
       <c r="I43" t="n">
-        <v>-120701.69127106</v>
+        <v>-57351.2483594914</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>266085.632142584</v>
+        <v>315110.083866656</v>
       </c>
       <c r="C44" t="n">
-        <v>100772.252137127</v>
+        <v>16393.8039872645</v>
       </c>
       <c r="D44" t="n">
-        <v>50338.020423518</v>
+        <v>198.341255625441</v>
       </c>
       <c r="E44" t="n">
-        <v>546205.158142003</v>
+        <v>1541329.94147859</v>
       </c>
       <c r="F44" t="n">
-        <v>749926.9954513</v>
+        <v>2440129.09177644</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>457212</v>
       </c>
       <c r="I44" t="n">
-        <v>-191126.367857416</v>
+        <v>-142101.916133344</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>148654.177897173</v>
+        <v>200112.57979471</v>
       </c>
       <c r="C45" t="n">
-        <v>41552.3314634338</v>
+        <v>2012.88440145311</v>
       </c>
       <c r="D45" t="n">
-        <v>14973.5510421865</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>355565.97091075</v>
+        <v>1179619.51172746</v>
       </c>
       <c r="F45" t="n">
-        <v>515189.537442955</v>
+        <v>1958455.67282327</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,10 +1824,10 @@
         <v>193538</v>
       </c>
       <c r="I45" t="n">
-        <v>-44883.822102827</v>
+        <v>6574.57979471004</v>
       </c>
       <c r="J45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46">
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>154400.515755454</v>
+        <v>195858.241747546</v>
       </c>
       <c r="C46" t="n">
-        <v>43218.7662810251</v>
+        <v>2401.21253373489</v>
       </c>
       <c r="D46" t="n">
-        <v>15600.1951473244</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>369071.881196983</v>
+        <v>1225839.12124552</v>
       </c>
       <c r="F46" t="n">
-        <v>534641.288643503</v>
+        <v>2032865.40467074</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,10 +1856,10 @@
         <v>166980</v>
       </c>
       <c r="I46" t="n">
-        <v>-12579.4842445458</v>
+        <v>28878.2417475465</v>
       </c>
       <c r="J46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47">
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>143357.957488981</v>
+        <v>182128.880514158</v>
       </c>
       <c r="C47" t="n">
-        <v>37610.4964780499</v>
+        <v>1879.78259450977</v>
       </c>
       <c r="D47" t="n">
-        <v>12532.8180313279</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>352959.399082249</v>
+        <v>1227588.2213728</v>
       </c>
       <c r="F47" t="n">
-        <v>516420.744024588</v>
+        <v>2045751.13545121</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,10 +1888,10 @@
         <v>165527</v>
       </c>
       <c r="I47" t="n">
-        <v>-22169.0425110194</v>
+        <v>16601.8805141582</v>
       </c>
       <c r="J47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48">
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>112240.040607316</v>
+        <v>160500.414528959</v>
       </c>
       <c r="C48" t="n">
-        <v>24451.3094187842</v>
+        <v>469.664275501941</v>
       </c>
       <c r="D48" t="n">
-        <v>6315.98348839746</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>299228.098576838</v>
+        <v>1198204.57813125</v>
       </c>
       <c r="F48" t="n">
-        <v>449393.703283024</v>
+        <v>2015165.26412935</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>92955</v>
       </c>
       <c r="I48" t="n">
-        <v>19285.0406073161</v>
+        <v>67545.414528959</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>78246.8674197792</v>
+        <v>126878.897985955</v>
       </c>
       <c r="C49" t="n">
-        <v>12318.3620733828</v>
+        <v>2.57199653831654</v>
       </c>
       <c r="D49" t="n">
-        <v>1810.38999756717</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>235767.513914368</v>
+        <v>1064239.19210794</v>
       </c>
       <c r="F49" t="n">
-        <v>367920.050500731</v>
+        <v>1836466.56700305</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>46150</v>
       </c>
       <c r="I49" t="n">
-        <v>32096.8674197792</v>
+        <v>80728.8979859549</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/HFMD.xlsx
+++ b/outcome/appendix/forecast/HFMD.xlsx
@@ -427,7 +427,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>40164.007155695</v>
+        <v>41933.2960456292</v>
       </c>
       <c r="C2" t="n">
         <v>16969.3616152968</v>
@@ -436,10 +436,10 @@
         <v>11567.1808221565</v>
       </c>
       <c r="E2" t="n">
-        <v>88508.248066381</v>
+        <v>98156.4036300151</v>
       </c>
       <c r="F2" t="n">
-        <v>106286.78312479</v>
+        <v>117714.991337292</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>28355</v>
       </c>
       <c r="I2" t="n">
-        <v>11809.007155695</v>
+        <v>13578.2960456292</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,7 +459,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>26625.9557901002</v>
+        <v>28498.9131744028</v>
       </c>
       <c r="C3" t="n">
         <v>3029.89708128877</v>
@@ -468,10 +468,10 @@
         <v>1047.19818451228</v>
       </c>
       <c r="E3" t="n">
-        <v>103253.561032738</v>
+        <v>116469.059241186</v>
       </c>
       <c r="F3" t="n">
-        <v>131814.405603026</v>
+        <v>147374.878940713</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>3263</v>
       </c>
       <c r="I3" t="n">
-        <v>23362.9557901002</v>
+        <v>25235.9131744028</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,7 +491,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>49881.2970433362</v>
+        <v>49261.2437854625</v>
       </c>
       <c r="C4" t="n">
         <v>11293.6214742715</v>
@@ -500,10 +500,10 @@
         <v>5224.26189745484</v>
       </c>
       <c r="E4" t="n">
-        <v>117881.484039125</v>
+        <v>123335.073555769</v>
       </c>
       <c r="F4" t="n">
-        <v>147966.380383094</v>
+        <v>152732.312531613</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>2869</v>
       </c>
       <c r="I4" t="n">
-        <v>47012.2970433362</v>
+        <v>46392.2437854625</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,7 +523,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>134292.632732626</v>
+        <v>130638.506378801</v>
       </c>
       <c r="C5" t="n">
         <v>53361.7718949051</v>
@@ -544,7 +544,7 @@
         <v>3001</v>
       </c>
       <c r="I5" t="n">
-        <v>131291.632732626</v>
+        <v>127637.506378801</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,7 +555,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>258921.528619012</v>
+        <v>253992.504175672</v>
       </c>
       <c r="C6" t="n">
         <v>124915.021401074</v>
@@ -576,7 +576,7 @@
         <v>3919</v>
       </c>
       <c r="I6" t="n">
-        <v>255002.528619012</v>
+        <v>250073.504175672</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,7 +587,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>299995.331334834</v>
+        <v>297047.660429333</v>
       </c>
       <c r="C7" t="n">
         <v>139467.618027384</v>
@@ -608,7 +608,7 @@
         <v>6260</v>
       </c>
       <c r="I7" t="n">
-        <v>293735.331334834</v>
+        <v>290787.660429333</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,7 +619,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>255273.549027337</v>
+        <v>257853.623716744</v>
       </c>
       <c r="C8" t="n">
         <v>97563.4798726928</v>
@@ -640,7 +640,7 @@
         <v>59143</v>
       </c>
       <c r="I8" t="n">
-        <v>196130.549027337</v>
+        <v>198710.623716744</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,7 +651,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>159590.665364349</v>
+        <v>165149.199836224</v>
       </c>
       <c r="C9" t="n">
         <v>37221.7066070934</v>
@@ -660,7 +660,7 @@
         <v>16138.656264602</v>
       </c>
       <c r="E9" t="n">
-        <v>329302.287149674</v>
+        <v>352465.143848049</v>
       </c>
       <c r="F9" t="n">
         <v>443375.369413727</v>
@@ -672,7 +672,7 @@
         <v>59143</v>
       </c>
       <c r="I9" t="n">
-        <v>100447.665364349</v>
+        <v>106006.199836224</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,7 +683,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>155312.503860583</v>
+        <v>156186.493974779</v>
       </c>
       <c r="C10" t="n">
         <v>37904.9106667436</v>
@@ -704,7 +704,7 @@
         <v>115170</v>
       </c>
       <c r="I10" t="n">
-        <v>40142.5038605834</v>
+        <v>41016.4939747785</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,7 +715,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>140381.831438838</v>
+        <v>139594.218504904</v>
       </c>
       <c r="C11" t="n">
         <v>33218.8968124578</v>
@@ -736,7 +736,7 @@
         <v>199875</v>
       </c>
       <c r="I11" t="n">
-        <v>-59493.1685611619</v>
+        <v>-60280.7814950955</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,7 +747,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>117622.476129339</v>
+        <v>116923.176838118</v>
       </c>
       <c r="C12" t="n">
         <v>20796.1922696631</v>
@@ -768,7 +768,7 @@
         <v>189017</v>
       </c>
       <c r="I12" t="n">
-        <v>-71394.5238706613</v>
+        <v>-72093.8231618823</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,7 +779,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>88368.9785223465</v>
+        <v>87422.0541342418</v>
       </c>
       <c r="C13" t="n">
         <v>9900.17579102057</v>
@@ -800,7 +800,7 @@
         <v>131798</v>
       </c>
       <c r="I13" t="n">
-        <v>-43429.0214776535</v>
+        <v>-44375.9458657582</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -811,7 +811,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>51637.3549194063</v>
+        <v>52286.2157739597</v>
       </c>
       <c r="C14" t="n">
         <v>1451.44520281947</v>
@@ -832,7 +832,7 @@
         <v>63209</v>
       </c>
       <c r="I14" t="n">
-        <v>-11571.6450805937</v>
+        <v>-10922.7842260403</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,7 +843,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>29942.6114836473</v>
+        <v>31356.6137338612</v>
       </c>
       <c r="C15" t="n">
         <v>0.166445454470808</v>
@@ -864,7 +864,7 @@
         <v>18529</v>
       </c>
       <c r="I15" t="n">
-        <v>11413.6114836473</v>
+        <v>12827.6137338612</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,7 +875,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>61585.8915629287</v>
+        <v>60784.7766028931</v>
       </c>
       <c r="C16" t="n">
         <v>1155.98843299379</v>
@@ -896,7 +896,7 @@
         <v>36206</v>
       </c>
       <c r="I16" t="n">
-        <v>25379.8915629287</v>
+        <v>24578.7766028931</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,7 +907,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>158519.798566305</v>
+        <v>153742.057868615</v>
       </c>
       <c r="C17" t="n">
         <v>19776.7665234654</v>
@@ -928,7 +928,7 @@
         <v>144167</v>
       </c>
       <c r="I17" t="n">
-        <v>14352.7985663046</v>
+        <v>9575.05786861462</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,7 +939,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>294699.799952628</v>
+        <v>284405.41632631</v>
       </c>
       <c r="C18" t="n">
         <v>65076.5482224243</v>
@@ -960,7 +960,7 @@
         <v>240838</v>
       </c>
       <c r="I18" t="n">
-        <v>53861.7999526284</v>
+        <v>43567.4163263101</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,7 +971,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>334503.028863074</v>
+        <v>323520.857783823</v>
       </c>
       <c r="C19" t="n">
         <v>77356.3737302722</v>
@@ -992,7 +992,7 @@
         <v>224426</v>
       </c>
       <c r="I19" t="n">
-        <v>110077.028863074</v>
+        <v>99094.8577838232</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,7 +1003,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>277915.945017621</v>
+        <v>274630.806402726</v>
       </c>
       <c r="C20" t="n">
         <v>51117.9485255163</v>
@@ -1024,7 +1024,7 @@
         <v>162987</v>
       </c>
       <c r="I20" t="n">
-        <v>114928.945017621</v>
+        <v>111643.806402726</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,7 +1035,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>171737.243858548</v>
+        <v>172152.672434554</v>
       </c>
       <c r="C21" t="n">
         <v>14876.9129205413</v>
@@ -1056,7 +1056,7 @@
         <v>71283</v>
       </c>
       <c r="I21" t="n">
-        <v>100454.243858548</v>
+        <v>100869.672434554</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,7 +1067,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>168312.626334173</v>
+        <v>170040.510184414</v>
       </c>
       <c r="C22" t="n">
         <v>15873.1881741792</v>
@@ -1088,7 +1088,7 @@
         <v>86635</v>
       </c>
       <c r="I22" t="n">
-        <v>81677.6263341728</v>
+        <v>83405.5101844135</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,7 +1099,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>153166.350753464</v>
+        <v>152333.747875243</v>
       </c>
       <c r="C23" t="n">
         <v>13735.3302146054</v>
@@ -1120,7 +1120,7 @@
         <v>132070</v>
       </c>
       <c r="I23" t="n">
-        <v>21096.3507534642</v>
+        <v>20263.7478752426</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,7 +1131,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>131038.369567319</v>
+        <v>130298.722189757</v>
       </c>
       <c r="C24" t="n">
         <v>7367.72624024737</v>
@@ -1152,7 +1152,7 @@
         <v>113473</v>
       </c>
       <c r="I24" t="n">
-        <v>17565.3695673191</v>
+        <v>16825.7221897574</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,7 +1163,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>100733.581364989</v>
+        <v>98304.4437248791</v>
       </c>
       <c r="C25" t="n">
         <v>2459.45770717749</v>
@@ -1184,7 +1184,7 @@
         <v>74421</v>
       </c>
       <c r="I25" t="n">
-        <v>26312.5813649895</v>
+        <v>23883.4437248791</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,7 +1195,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>61120.5974950398</v>
+        <v>59480.2635064802</v>
       </c>
       <c r="C26" t="n">
         <v>27.4305813201427</v>
@@ -1216,7 +1216,7 @@
         <v>44183</v>
       </c>
       <c r="I26" t="n">
-        <v>16937.5974950398</v>
+        <v>15297.2635064802</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,7 +1227,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>35333.1600064059</v>
+        <v>35673.4705155926</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1248,7 +1248,7 @@
         <v>18134</v>
       </c>
       <c r="I27" t="n">
-        <v>17199.1600064059</v>
+        <v>17539.4705155926</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,7 +1259,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>71159.7373402074</v>
+        <v>70780.9692509437</v>
       </c>
       <c r="C28" t="n">
         <v>16.6480962398356</v>
@@ -1280,7 +1280,7 @@
         <v>33287</v>
       </c>
       <c r="I28" t="n">
-        <v>37872.7373402074</v>
+        <v>37493.9692509437</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,7 +1291,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>174372.104420504</v>
+        <v>172271.195784828</v>
       </c>
       <c r="C29" t="n">
         <v>8025.99920216501</v>
@@ -1312,7 +1312,7 @@
         <v>44794</v>
       </c>
       <c r="I29" t="n">
-        <v>129578.104420504</v>
+        <v>127477.195784828</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,7 +1323,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>313060.055632862</v>
+        <v>309625.428674793</v>
       </c>
       <c r="C30" t="n">
         <v>37887.1625174603</v>
@@ -1344,7 +1344,7 @@
         <v>70042</v>
       </c>
       <c r="I30" t="n">
-        <v>243018.055632862</v>
+        <v>239583.428674793</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,7 +1355,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>351338.174680075</v>
+        <v>347869.669583153</v>
       </c>
       <c r="C31" t="n">
         <v>47231.5228150507</v>
@@ -1376,7 +1376,7 @@
         <v>140661</v>
       </c>
       <c r="I31" t="n">
-        <v>210677.174680075</v>
+        <v>207208.669583153</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,7 +1387,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>293118.540852616</v>
+        <v>293017.113851282</v>
       </c>
       <c r="C32" t="n">
         <v>28979.0084271612</v>
@@ -1408,7 +1408,7 @@
         <v>108973</v>
       </c>
       <c r="I32" t="n">
-        <v>184145.540852616</v>
+        <v>184044.113851282</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,7 +1419,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>184367.304598676</v>
+        <v>185403.566830394</v>
       </c>
       <c r="C33" t="n">
         <v>5936.08830935258</v>
@@ -1440,7 +1440,7 @@
         <v>54528</v>
       </c>
       <c r="I33" t="n">
-        <v>129839.304598676</v>
+        <v>130875.566830394</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,7 +1451,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>181208.36783591</v>
+        <v>183652.463428508</v>
       </c>
       <c r="C34" t="n">
         <v>6624.767915963</v>
@@ -1472,7 +1472,7 @@
         <v>44872</v>
       </c>
       <c r="I34" t="n">
-        <v>136336.36783591</v>
+        <v>138780.463428508</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,7 +1483,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>166300.075249728</v>
+        <v>167378.034410658</v>
       </c>
       <c r="C35" t="n">
         <v>5536.39051589146</v>
@@ -1504,7 +1504,7 @@
         <v>47395</v>
       </c>
       <c r="I35" t="n">
-        <v>118905.075249728</v>
+        <v>119983.034410658</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,7 +1515,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>144293.546605781</v>
+        <v>146040.031292512</v>
       </c>
       <c r="C36" t="n">
         <v>2299.82069790093</v>
@@ -1536,7 +1536,7 @@
         <v>50633</v>
       </c>
       <c r="I36" t="n">
-        <v>93660.546605781</v>
+        <v>95407.0312925121</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,7 +1547,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>112414.472260467</v>
+        <v>112497.089271181</v>
       </c>
       <c r="C37" t="n">
         <v>362.552952218904</v>
@@ -1568,7 +1568,7 @@
         <v>27747</v>
       </c>
       <c r="I37" t="n">
-        <v>84667.4722604672</v>
+        <v>84750.0892711806</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,7 +1579,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>70705.5951116476</v>
+        <v>69773.5028059606</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1600,7 +1600,7 @@
         <v>2484</v>
       </c>
       <c r="I38" t="n">
-        <v>68221.5951116476</v>
+        <v>67289.5028059606</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,7 +1611,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>42669.2488443306</v>
+        <v>42654.730055987</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1632,7 +1632,7 @@
         <v>3935</v>
       </c>
       <c r="I39" t="n">
-        <v>38734.2488443306</v>
+        <v>38719.730055987</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,7 +1643,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>82579.8193242406</v>
+        <v>81630.2068740226</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>9631</v>
       </c>
       <c r="I40" t="n">
-        <v>72948.8193242406</v>
+        <v>71999.2068740226</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1675,7 +1675,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>192924.751425835</v>
+        <v>190275.201586783</v>
       </c>
       <c r="C41" t="n">
         <v>2906.22644962133</v>
@@ -1696,7 +1696,7 @@
         <v>20105</v>
       </c>
       <c r="I41" t="n">
-        <v>172819.751425835</v>
+        <v>170170.201586783</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1707,7 +1707,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>337293.587625331</v>
+        <v>333774.474146971</v>
       </c>
       <c r="C42" t="n">
         <v>22332.6941477881</v>
@@ -1728,7 +1728,7 @@
         <v>91259</v>
       </c>
       <c r="I42" t="n">
-        <v>246034.587625331</v>
+        <v>242515.474146971</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1739,7 +1739,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>375732.751640509</v>
+        <v>373058.665848598</v>
       </c>
       <c r="C43" t="n">
         <v>29305.9672301651</v>
@@ -1760,7 +1760,7 @@
         <v>433084</v>
       </c>
       <c r="I43" t="n">
-        <v>-57351.2483594914</v>
+        <v>-60025.3341514025</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1771,7 +1771,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>315110.083866656</v>
+        <v>315788.636438919</v>
       </c>
       <c r="C44" t="n">
         <v>16393.8039872645</v>
@@ -1792,7 +1792,7 @@
         <v>457212</v>
       </c>
       <c r="I44" t="n">
-        <v>-142101.916133344</v>
+        <v>-141423.363561081</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,7 +1803,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>200112.57979471</v>
+        <v>202069.475104455</v>
       </c>
       <c r="C45" t="n">
         <v>2012.88440145311</v>
@@ -1824,7 +1824,7 @@
         <v>193538</v>
       </c>
       <c r="I45" t="n">
-        <v>6574.57979471004</v>
+        <v>8531.47510445534</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1835,7 +1835,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>195858.241747546</v>
+        <v>200075.090750977</v>
       </c>
       <c r="C46" t="n">
         <v>2401.21253373489</v>
@@ -1856,7 +1856,7 @@
         <v>166980</v>
       </c>
       <c r="I46" t="n">
-        <v>28878.2417475465</v>
+        <v>33095.0907509766</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1867,7 +1867,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>182128.880514158</v>
+        <v>184280.379858738</v>
       </c>
       <c r="C47" t="n">
         <v>1879.78259450977</v>
@@ -1888,7 +1888,7 @@
         <v>165527</v>
       </c>
       <c r="I47" t="n">
-        <v>16601.8805141582</v>
+        <v>18753.3798587384</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1899,7 +1899,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>160500.414528959</v>
+        <v>163225.843194668</v>
       </c>
       <c r="C48" t="n">
         <v>469.664275501941</v>
@@ -1920,7 +1920,7 @@
         <v>92955</v>
       </c>
       <c r="I48" t="n">
-        <v>67545.414528959</v>
+        <v>70270.8431946682</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1931,7 +1931,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>126878.897985955</v>
+        <v>128485.497160848</v>
       </c>
       <c r="C49" t="n">
         <v>2.57199653831654</v>
@@ -1952,7 +1952,7 @@
         <v>46150</v>
       </c>
       <c r="I49" t="n">
-        <v>80728.8979859549</v>
+        <v>82335.4971608482</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/HFMD.xlsx
+++ b/outcome/appendix/forecast/HFMD.xlsx
@@ -427,7 +427,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>41933.2960456292</v>
+        <v>40177.1022439771</v>
       </c>
       <c r="C2" t="n">
         <v>16969.3616152968</v>
@@ -436,10 +436,10 @@
         <v>11567.1808221565</v>
       </c>
       <c r="E2" t="n">
-        <v>98156.4036300151</v>
+        <v>88862.7376407396</v>
       </c>
       <c r="F2" t="n">
-        <v>117714.991337292</v>
+        <v>106879.658277039</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>28355</v>
       </c>
       <c r="I2" t="n">
-        <v>13578.2960456292</v>
+        <v>11822.1022439771</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,7 +459,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>28498.9131744028</v>
+        <v>25769.1696600403</v>
       </c>
       <c r="C3" t="n">
         <v>3029.89708128877</v>
@@ -468,10 +468,10 @@
         <v>1047.19818451228</v>
       </c>
       <c r="E3" t="n">
-        <v>116469.059241186</v>
+        <v>95489.5977776415</v>
       </c>
       <c r="F3" t="n">
-        <v>147374.878940713</v>
+        <v>119817.976154743</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>3263</v>
       </c>
       <c r="I3" t="n">
-        <v>25235.9131744028</v>
+        <v>22506.1696600403</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,7 +491,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>49261.2437854625</v>
+        <v>48935.0115710994</v>
       </c>
       <c r="C4" t="n">
         <v>11293.6214742715</v>
@@ -500,10 +500,10 @@
         <v>5224.26189745484</v>
       </c>
       <c r="E4" t="n">
-        <v>123335.073555769</v>
+        <v>106927.09197478</v>
       </c>
       <c r="F4" t="n">
-        <v>152732.312531613</v>
+        <v>147656.828741348</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>2869</v>
       </c>
       <c r="I4" t="n">
-        <v>46392.2437854625</v>
+        <v>46066.0115710994</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,7 +523,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>130638.506378801</v>
+        <v>133349.002426305</v>
       </c>
       <c r="C5" t="n">
         <v>53361.7718949051</v>
@@ -544,7 +544,7 @@
         <v>3001</v>
       </c>
       <c r="I5" t="n">
-        <v>127637.506378801</v>
+        <v>130348.002426305</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,7 +555,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>253992.504175672</v>
+        <v>259915.505770354</v>
       </c>
       <c r="C6" t="n">
         <v>124915.021401074</v>
@@ -576,7 +576,7 @@
         <v>3919</v>
       </c>
       <c r="I6" t="n">
-        <v>250073.504175672</v>
+        <v>255996.505770354</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,7 +587,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>297047.660429333</v>
+        <v>301944.438976587</v>
       </c>
       <c r="C7" t="n">
         <v>139467.618027384</v>
@@ -608,7 +608,7 @@
         <v>6260</v>
       </c>
       <c r="I7" t="n">
-        <v>290787.660429333</v>
+        <v>295684.438976587</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,7 +619,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>257853.623716744</v>
+        <v>257954.942078507</v>
       </c>
       <c r="C8" t="n">
         <v>97563.4798726928</v>
@@ -640,7 +640,7 @@
         <v>59143</v>
       </c>
       <c r="I8" t="n">
-        <v>198710.623716744</v>
+        <v>198811.942078507</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,7 +651,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>165149.199836224</v>
+        <v>159470.244027219</v>
       </c>
       <c r="C9" t="n">
         <v>37221.7066070934</v>
@@ -660,7 +660,7 @@
         <v>16138.656264602</v>
       </c>
       <c r="E9" t="n">
-        <v>352465.143848049</v>
+        <v>342929.864523746</v>
       </c>
       <c r="F9" t="n">
         <v>443375.369413727</v>
@@ -672,7 +672,7 @@
         <v>59143</v>
       </c>
       <c r="I9" t="n">
-        <v>106006.199836224</v>
+        <v>100327.244027219</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,7 +683,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>156186.493974779</v>
+        <v>156035.667213736</v>
       </c>
       <c r="C10" t="n">
         <v>37904.9106667436</v>
@@ -704,7 +704,7 @@
         <v>115170</v>
       </c>
       <c r="I10" t="n">
-        <v>41016.4939747785</v>
+        <v>40865.6672137364</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,7 +715,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>139594.218504904</v>
+        <v>142843.311847505</v>
       </c>
       <c r="C11" t="n">
         <v>33218.8968124578</v>
@@ -736,7 +736,7 @@
         <v>199875</v>
       </c>
       <c r="I11" t="n">
-        <v>-60280.7814950955</v>
+        <v>-57031.6881524951</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,7 +747,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>116923.176838118</v>
+        <v>120985.119736584</v>
       </c>
       <c r="C12" t="n">
         <v>20796.1922696631</v>
@@ -768,7 +768,7 @@
         <v>189017</v>
       </c>
       <c r="I12" t="n">
-        <v>-72093.8231618823</v>
+        <v>-68031.8802634157</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,7 +779,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>87422.0541342418</v>
+        <v>89450.779603584</v>
       </c>
       <c r="C13" t="n">
         <v>9900.17579102057</v>
@@ -800,7 +800,7 @@
         <v>131798</v>
       </c>
       <c r="I13" t="n">
-        <v>-44375.9458657582</v>
+        <v>-42347.220396416</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -811,7 +811,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>52286.2157739597</v>
+        <v>51513.92524808</v>
       </c>
       <c r="C14" t="n">
         <v>1451.44520281947</v>
@@ -832,7 +832,7 @@
         <v>63209</v>
       </c>
       <c r="I14" t="n">
-        <v>-10922.7842260403</v>
+        <v>-11695.07475192</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,7 +843,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>31356.6137338612</v>
+        <v>29596.5527494463</v>
       </c>
       <c r="C15" t="n">
         <v>0.166445454470808</v>
@@ -864,7 +864,7 @@
         <v>18529</v>
       </c>
       <c r="I15" t="n">
-        <v>12827.6137338612</v>
+        <v>11067.5527494463</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,7 +875,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>60784.7766028931</v>
+        <v>59488.4891217952</v>
       </c>
       <c r="C16" t="n">
         <v>1155.98843299379</v>
@@ -896,7 +896,7 @@
         <v>36206</v>
       </c>
       <c r="I16" t="n">
-        <v>24578.7766028931</v>
+        <v>23282.4891217952</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,7 +907,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>153742.057868615</v>
+        <v>155507.10986807</v>
       </c>
       <c r="C17" t="n">
         <v>19776.7665234654</v>
@@ -928,7 +928,7 @@
         <v>144167</v>
       </c>
       <c r="I17" t="n">
-        <v>9575.05786861462</v>
+        <v>11340.1098680704</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,7 +939,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>284405.41632631</v>
+        <v>292710.948957056</v>
       </c>
       <c r="C18" t="n">
         <v>65076.5482224243</v>
@@ -960,7 +960,7 @@
         <v>240838</v>
       </c>
       <c r="I18" t="n">
-        <v>43567.4163263101</v>
+        <v>51872.9489570563</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,7 +971,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>323520.857783823</v>
+        <v>334708.977540571</v>
       </c>
       <c r="C19" t="n">
         <v>77356.3737302722</v>
@@ -992,7 +992,7 @@
         <v>224426</v>
       </c>
       <c r="I19" t="n">
-        <v>99094.8577838232</v>
+        <v>110282.977540571</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,7 +1003,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>274630.806402726</v>
+        <v>283294.825995246</v>
       </c>
       <c r="C20" t="n">
         <v>51117.9485255163</v>
@@ -1024,7 +1024,7 @@
         <v>162987</v>
       </c>
       <c r="I20" t="n">
-        <v>111643.806402726</v>
+        <v>120307.825995246</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,7 +1035,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>172152.672434554</v>
+        <v>174921.955876165</v>
       </c>
       <c r="C21" t="n">
         <v>14876.9129205413</v>
@@ -1056,7 +1056,7 @@
         <v>71283</v>
       </c>
       <c r="I21" t="n">
-        <v>100869.672434554</v>
+        <v>103638.955876165</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,7 +1067,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>170040.510184414</v>
+        <v>169712.535232672</v>
       </c>
       <c r="C22" t="n">
         <v>15873.1881741792</v>
@@ -1088,7 +1088,7 @@
         <v>86635</v>
       </c>
       <c r="I22" t="n">
-        <v>83405.5101844135</v>
+        <v>83077.5352326723</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,7 +1099,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>152333.747875243</v>
+        <v>154778.352610841</v>
       </c>
       <c r="C23" t="n">
         <v>13735.3302146054</v>
@@ -1120,7 +1120,7 @@
         <v>132070</v>
       </c>
       <c r="I23" t="n">
-        <v>20263.7478752426</v>
+        <v>22708.352610841</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,7 +1131,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>130298.722189757</v>
+        <v>133760.586281392</v>
       </c>
       <c r="C24" t="n">
         <v>7367.72624024737</v>
@@ -1152,7 +1152,7 @@
         <v>113473</v>
       </c>
       <c r="I24" t="n">
-        <v>16825.7221897574</v>
+        <v>20287.5862813919</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,7 +1163,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>98304.4437248791</v>
+        <v>104371.45186723</v>
       </c>
       <c r="C25" t="n">
         <v>2459.45770717749</v>
@@ -1184,7 +1184,7 @@
         <v>74421</v>
       </c>
       <c r="I25" t="n">
-        <v>23883.4437248791</v>
+        <v>29950.4518672298</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,7 +1195,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>59480.2635064802</v>
+        <v>64842.1547980633</v>
       </c>
       <c r="C26" t="n">
         <v>27.4305813201427</v>
@@ -1216,7 +1216,7 @@
         <v>44183</v>
       </c>
       <c r="I26" t="n">
-        <v>15297.2635064802</v>
+        <v>20659.1547980633</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,7 +1227,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>35673.4705155926</v>
+        <v>36437.9594248114</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1248,7 +1248,7 @@
         <v>18134</v>
       </c>
       <c r="I27" t="n">
-        <v>17539.4705155926</v>
+        <v>18303.9594248114</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,7 +1259,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>70780.9692509437</v>
+        <v>65020.7923337705</v>
       </c>
       <c r="C28" t="n">
         <v>16.6480962398356</v>
@@ -1280,7 +1280,7 @@
         <v>33287</v>
       </c>
       <c r="I28" t="n">
-        <v>37493.9692509437</v>
+        <v>31733.7923337705</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,7 +1291,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>172271.195784828</v>
+        <v>162621.133035637</v>
       </c>
       <c r="C29" t="n">
         <v>8025.99920216501</v>
@@ -1312,7 +1312,7 @@
         <v>44794</v>
       </c>
       <c r="I29" t="n">
-        <v>127477.195784828</v>
+        <v>117827.133035637</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,7 +1323,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>309625.428674793</v>
+        <v>300084.122310934</v>
       </c>
       <c r="C30" t="n">
         <v>37887.1625174603</v>
@@ -1344,7 +1344,7 @@
         <v>70042</v>
       </c>
       <c r="I30" t="n">
-        <v>239583.428674793</v>
+        <v>230042.122310934</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,7 +1355,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>347869.669583153</v>
+        <v>345117.420313256</v>
       </c>
       <c r="C31" t="n">
         <v>47231.5228150507</v>
@@ -1376,7 +1376,7 @@
         <v>140661</v>
       </c>
       <c r="I31" t="n">
-        <v>207208.669583153</v>
+        <v>204456.420313256</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,7 +1387,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>293017.113851282</v>
+        <v>299553.281507999</v>
       </c>
       <c r="C32" t="n">
         <v>28979.0084271612</v>
@@ -1408,7 +1408,7 @@
         <v>108973</v>
       </c>
       <c r="I32" t="n">
-        <v>184044.113851282</v>
+        <v>190580.281507999</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,7 +1419,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>185403.566830394</v>
+        <v>191968.033697034</v>
       </c>
       <c r="C33" t="n">
         <v>5936.08830935258</v>
@@ -1440,7 +1440,7 @@
         <v>54528</v>
       </c>
       <c r="I33" t="n">
-        <v>130875.566830394</v>
+        <v>137440.033697034</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,7 +1451,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>183652.463428508</v>
+        <v>186177.755250716</v>
       </c>
       <c r="C34" t="n">
         <v>6624.767915963</v>
@@ -1472,7 +1472,7 @@
         <v>44872</v>
       </c>
       <c r="I34" t="n">
-        <v>138780.463428508</v>
+        <v>141305.755250716</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,7 +1483,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>167378.034410658</v>
+        <v>168764.922668157</v>
       </c>
       <c r="C35" t="n">
         <v>5536.39051589146</v>
@@ -1504,7 +1504,7 @@
         <v>47395</v>
       </c>
       <c r="I35" t="n">
-        <v>119983.034410658</v>
+        <v>121369.922668157</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,7 +1515,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>146040.031292512</v>
+        <v>146389.96790621</v>
       </c>
       <c r="C36" t="n">
         <v>2299.82069790093</v>
@@ -1536,7 +1536,7 @@
         <v>50633</v>
       </c>
       <c r="I36" t="n">
-        <v>95407.0312925121</v>
+        <v>95756.96790621</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,7 +1547,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>112497.089271181</v>
+        <v>116142.74795159</v>
       </c>
       <c r="C37" t="n">
         <v>362.552952218904</v>
@@ -1568,7 +1568,7 @@
         <v>27747</v>
       </c>
       <c r="I37" t="n">
-        <v>84750.0892711806</v>
+        <v>88395.7479515904</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,7 +1579,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>69773.5028059606</v>
+        <v>77809.5495471991</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1600,7 +1600,7 @@
         <v>2484</v>
       </c>
       <c r="I38" t="n">
-        <v>67289.5028059606</v>
+        <v>75325.5495471991</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,7 +1611,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>42654.730055987</v>
+        <v>47157.9883559624</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1632,7 +1632,7 @@
         <v>3935</v>
       </c>
       <c r="I39" t="n">
-        <v>38719.730055987</v>
+        <v>43222.9883559624</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,7 +1643,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>81630.2068740226</v>
+        <v>71494.5968501535</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>9631</v>
       </c>
       <c r="I40" t="n">
-        <v>71999.2068740226</v>
+        <v>61863.5968501535</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1675,7 +1675,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>190275.201586783</v>
+        <v>171303.964370679</v>
       </c>
       <c r="C41" t="n">
         <v>2906.22644962133</v>
@@ -1696,7 +1696,7 @@
         <v>20105</v>
       </c>
       <c r="I41" t="n">
-        <v>170170.201586783</v>
+        <v>151198.964370679</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1707,7 +1707,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>333774.474146971</v>
+        <v>311674.595194842</v>
       </c>
       <c r="C42" t="n">
         <v>22332.6941477881</v>
@@ -1728,7 +1728,7 @@
         <v>91259</v>
       </c>
       <c r="I42" t="n">
-        <v>242515.474146971</v>
+        <v>220415.595194842</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1739,7 +1739,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>373058.665848598</v>
+        <v>362645.123257044</v>
       </c>
       <c r="C43" t="n">
         <v>29305.9672301651</v>
@@ -1760,7 +1760,7 @@
         <v>433084</v>
       </c>
       <c r="I43" t="n">
-        <v>-60025.3341514025</v>
+        <v>-70438.8767429563</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1771,7 +1771,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>315788.636438919</v>
+        <v>328438.973641284</v>
       </c>
       <c r="C44" t="n">
         <v>16393.8039872645</v>
@@ -1792,7 +1792,7 @@
         <v>457212</v>
       </c>
       <c r="I44" t="n">
-        <v>-141423.363561081</v>
+        <v>-128773.026358716</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,7 +1803,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>202069.475104455</v>
+        <v>221203.884830806</v>
       </c>
       <c r="C45" t="n">
         <v>2012.88440145311</v>
@@ -1824,7 +1824,7 @@
         <v>193538</v>
       </c>
       <c r="I45" t="n">
-        <v>8531.47510445534</v>
+        <v>27665.8848308059</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1835,7 +1835,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>200075.090750977</v>
+        <v>206698.593631119</v>
       </c>
       <c r="C46" t="n">
         <v>2401.21253373489</v>
@@ -1856,7 +1856,7 @@
         <v>166980</v>
       </c>
       <c r="I46" t="n">
-        <v>33095.0907509766</v>
+        <v>39718.593631119</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1867,7 +1867,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>184280.379858738</v>
+        <v>184131.154896708</v>
       </c>
       <c r="C47" t="n">
         <v>1879.78259450977</v>
@@ -1888,7 +1888,7 @@
         <v>165527</v>
       </c>
       <c r="I47" t="n">
-        <v>18753.3798587384</v>
+        <v>18604.154896708</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1899,7 +1899,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>163225.843194668</v>
+        <v>162064.687215282</v>
       </c>
       <c r="C48" t="n">
         <v>469.664275501941</v>
@@ -1920,7 +1920,7 @@
         <v>92955</v>
       </c>
       <c r="I48" t="n">
-        <v>70270.8431946682</v>
+        <v>69109.6872152817</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1931,7 +1931,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>128485.497160848</v>
+        <v>132484.875632229</v>
       </c>
       <c r="C49" t="n">
         <v>2.57199653831654</v>
@@ -1952,7 +1952,7 @@
         <v>46150</v>
       </c>
       <c r="I49" t="n">
-        <v>82335.4971608482</v>
+        <v>86334.8756322285</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/HFMD.xlsx
+++ b/outcome/appendix/forecast/HFMD.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>40177.1022439771</v>
+        <v>34348.5909854281</v>
       </c>
       <c r="C2" t="n">
-        <v>16969.3616152968</v>
+        <v>18524.5466442678</v>
       </c>
       <c r="D2" t="n">
-        <v>11567.1808221565</v>
+        <v>12516.3042163576</v>
       </c>
       <c r="E2" t="n">
-        <v>88862.7376407396</v>
+        <v>56938.0041013796</v>
       </c>
       <c r="F2" t="n">
-        <v>106879.658277039</v>
+        <v>71993.364448662</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>28355</v>
       </c>
       <c r="I2" t="n">
-        <v>11822.1022439771</v>
+        <v>5993.59098542811</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>25769.1696600403</v>
+        <v>17225.1347613459</v>
       </c>
       <c r="C3" t="n">
-        <v>3029.89708128877</v>
+        <v>5300.11369953773</v>
       </c>
       <c r="D3" t="n">
-        <v>1047.19818451228</v>
+        <v>2134.66899164346</v>
       </c>
       <c r="E3" t="n">
-        <v>95489.5977776415</v>
+        <v>39359.9667566109</v>
       </c>
       <c r="F3" t="n">
-        <v>119817.976154743</v>
+        <v>56142.3903736762</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>3263</v>
       </c>
       <c r="I3" t="n">
-        <v>22506.1696600403</v>
+        <v>13962.1347613459</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>48935.0115710994</v>
+        <v>44320.3435513285</v>
       </c>
       <c r="C4" t="n">
-        <v>11293.6214742715</v>
+        <v>18528.9080846918</v>
       </c>
       <c r="D4" t="n">
-        <v>5224.26189745484</v>
+        <v>10145.0525250755</v>
       </c>
       <c r="E4" t="n">
-        <v>106927.09197478</v>
+        <v>86066.5442560538</v>
       </c>
       <c r="F4" t="n">
-        <v>147656.828741348</v>
+        <v>115763.242430763</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>2869</v>
       </c>
       <c r="I4" t="n">
-        <v>46066.0115710994</v>
+        <v>41451.3435513285</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>133349.002426305</v>
+        <v>137342.337078681</v>
       </c>
       <c r="C5" t="n">
-        <v>53361.7718949051</v>
+        <v>77029.2362901143</v>
       </c>
       <c r="D5" t="n">
-        <v>32843.3827736194</v>
+        <v>53598.6685678545</v>
       </c>
       <c r="E5" t="n">
-        <v>282700.183294278</v>
+        <v>221708.399522547</v>
       </c>
       <c r="F5" t="n">
-        <v>368807.177469479</v>
+        <v>277308.824878021</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>3001</v>
       </c>
       <c r="I5" t="n">
-        <v>130348.002426305</v>
+        <v>134341.337078681</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>259915.505770354</v>
+        <v>293626.841379621</v>
       </c>
       <c r="C6" t="n">
-        <v>124915.021401074</v>
+        <v>188459.986662911</v>
       </c>
       <c r="D6" t="n">
-        <v>84280.3529282507</v>
+        <v>144339.133709844</v>
       </c>
       <c r="E6" t="n">
-        <v>488602.374451588</v>
+        <v>430482.841080648</v>
       </c>
       <c r="F6" t="n">
-        <v>624448.189982371</v>
+        <v>517005.096308066</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>3919</v>
       </c>
       <c r="I6" t="n">
-        <v>255996.505770354</v>
+        <v>289707.841379621</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>301944.438976587</v>
+        <v>336409.591827704</v>
       </c>
       <c r="C7" t="n">
-        <v>139467.618027384</v>
+        <v>218470.695566752</v>
       </c>
       <c r="D7" t="n">
-        <v>90379.4922959343</v>
+        <v>168666.11526346</v>
       </c>
       <c r="E7" t="n">
-        <v>526330.809119341</v>
+        <v>488898.500045351</v>
       </c>
       <c r="F7" t="n">
-        <v>683255.124450596</v>
+        <v>584933.998348548</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>6260</v>
       </c>
       <c r="I7" t="n">
-        <v>295684.438976587</v>
+        <v>330149.591827704</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>257954.942078507</v>
+        <v>270531.396458044</v>
       </c>
       <c r="C8" t="n">
-        <v>97563.4798726928</v>
+        <v>167282.595349844</v>
       </c>
       <c r="D8" t="n">
-        <v>55925.2923822917</v>
+        <v>124864.687722803</v>
       </c>
       <c r="E8" t="n">
-        <v>460725.257801962</v>
+        <v>407648.503365146</v>
       </c>
       <c r="F8" t="n">
-        <v>618097.129439827</v>
+        <v>495378.569145499</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>59143</v>
       </c>
       <c r="I8" t="n">
-        <v>198811.942078507</v>
+        <v>211388.396458044</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>159470.244027219</v>
+        <v>153472.954327853</v>
       </c>
       <c r="C9" t="n">
-        <v>37221.7066070934</v>
+        <v>83020.0910059289</v>
       </c>
       <c r="D9" t="n">
-        <v>16138.656264602</v>
+        <v>56222.5391788139</v>
       </c>
       <c r="E9" t="n">
-        <v>342929.864523746</v>
+        <v>253891.289445877</v>
       </c>
       <c r="F9" t="n">
-        <v>443375.369413727</v>
+        <v>320761.184695042</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>59143</v>
       </c>
       <c r="I9" t="n">
-        <v>100327.244027219</v>
+        <v>94329.954327853</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>156035.667213736</v>
+        <v>162227.583544687</v>
       </c>
       <c r="C10" t="n">
-        <v>37904.9106667436</v>
+        <v>87844.4112598699</v>
       </c>
       <c r="D10" t="n">
-        <v>15059.605528539</v>
+        <v>59535.1591252955</v>
       </c>
       <c r="E10" t="n">
-        <v>337736.636405464</v>
+        <v>268192.694496562</v>
       </c>
       <c r="F10" t="n">
-        <v>487690.388469572</v>
+        <v>338736.12301362</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>115170</v>
       </c>
       <c r="I10" t="n">
-        <v>40865.6672137364</v>
+        <v>47057.5835446866</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>142843.311847505</v>
+        <v>166317.777464448</v>
       </c>
       <c r="C11" t="n">
-        <v>33218.8968124578</v>
+        <v>89521.8128843183</v>
       </c>
       <c r="D11" t="n">
-        <v>11766.4198281533</v>
+        <v>60396.9203311249</v>
       </c>
       <c r="E11" t="n">
-        <v>345896.125466686</v>
+        <v>276058.481517867</v>
       </c>
       <c r="F11" t="n">
-        <v>507278.451252376</v>
+        <v>349239.028950949</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>199875</v>
       </c>
       <c r="I11" t="n">
-        <v>-57031.6881524951</v>
+        <v>-33557.2225355524</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>120985.119736584</v>
+        <v>132545.421848697</v>
       </c>
       <c r="C12" t="n">
-        <v>20796.1922696631</v>
+        <v>66357.395783082</v>
       </c>
       <c r="D12" t="n">
-        <v>5736.18078771595</v>
+        <v>42313.7170257204</v>
       </c>
       <c r="E12" t="n">
-        <v>339646.089385044</v>
+        <v>230679.735873421</v>
       </c>
       <c r="F12" t="n">
-        <v>508107.931084985</v>
+        <v>297431.865597511</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>189017</v>
       </c>
       <c r="I12" t="n">
-        <v>-68031.8802634157</v>
+        <v>-56471.5781513029</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>89450.779603584</v>
+        <v>95852.2846118709</v>
       </c>
       <c r="C13" t="n">
-        <v>9900.17579102057</v>
+        <v>42844.7214993715</v>
       </c>
       <c r="D13" t="n">
-        <v>1403.28263465793</v>
+        <v>24876.6315198109</v>
       </c>
       <c r="E13" t="n">
-        <v>286873.919977147</v>
+        <v>178956.763214446</v>
       </c>
       <c r="F13" t="n">
-        <v>447035.333599185</v>
+        <v>237141.517904484</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>131798</v>
       </c>
       <c r="I13" t="n">
-        <v>-42347.220396416</v>
+        <v>-35945.7153881291</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>51513.92524808</v>
+        <v>48635.9897052048</v>
       </c>
       <c r="C14" t="n">
-        <v>1451.44520281947</v>
+        <v>16202.9428362723</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>7114.20491891545</v>
       </c>
       <c r="E14" t="n">
-        <v>206882.819653564</v>
+        <v>106820.74226239</v>
       </c>
       <c r="F14" t="n">
-        <v>345383.092816158</v>
+        <v>150269.896013291</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>63209</v>
       </c>
       <c r="I14" t="n">
-        <v>-11695.07475192</v>
+        <v>-14573.0102947952</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>29596.5527494463</v>
+        <v>19517.7735926831</v>
       </c>
       <c r="C15" t="n">
-        <v>0.166445454470808</v>
+        <v>3506.09359954635</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>661.79379538288</v>
       </c>
       <c r="E15" t="n">
-        <v>157301.858550025</v>
+        <v>56085.5248247752</v>
       </c>
       <c r="F15" t="n">
-        <v>280794.108007456</v>
+        <v>86254.9701481414</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>18529</v>
       </c>
       <c r="I15" t="n">
-        <v>11067.5527494463</v>
+        <v>988.773592683141</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>59488.4891217952</v>
+        <v>43475.7376458899</v>
       </c>
       <c r="C16" t="n">
-        <v>1155.98843299379</v>
+        <v>13029.4502288385</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>5094.32155025523</v>
       </c>
       <c r="E16" t="n">
-        <v>282281.326704613</v>
+        <v>100621.714372622</v>
       </c>
       <c r="F16" t="n">
-        <v>462745.531030342</v>
+        <v>144161.326515934</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>36206</v>
       </c>
       <c r="I16" t="n">
-        <v>23282.4891217952</v>
+        <v>7269.73764588992</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>155507.10986807</v>
+        <v>133528.816848379</v>
       </c>
       <c r="C17" t="n">
-        <v>19776.7665234654</v>
+        <v>62461.0618291061</v>
       </c>
       <c r="D17" t="n">
-        <v>3660.22043868491</v>
+        <v>37686.5073529583</v>
       </c>
       <c r="E17" t="n">
-        <v>563584.469972411</v>
+        <v>242510.713329424</v>
       </c>
       <c r="F17" t="n">
-        <v>845133.102821592</v>
+        <v>317957.703205728</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,10 +928,10 @@
         <v>144167</v>
       </c>
       <c r="I17" t="n">
-        <v>11340.1098680704</v>
+        <v>-10638.1831516206</v>
       </c>
       <c r="J17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>292710.948957056</v>
+        <v>281958.947782113</v>
       </c>
       <c r="C18" t="n">
-        <v>65076.5482224243</v>
+        <v>159248.497168831</v>
       </c>
       <c r="D18" t="n">
-        <v>23542.6807768859</v>
+        <v>111383.675083717</v>
       </c>
       <c r="E18" t="n">
-        <v>854625.961345106</v>
+        <v>452979.174669792</v>
       </c>
       <c r="F18" t="n">
-        <v>1228220.07471775</v>
+        <v>565457.952757856</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>240838</v>
       </c>
       <c r="I18" t="n">
-        <v>51872.9489570563</v>
+        <v>41120.947782113</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>334708.977540571</v>
+        <v>330242.721949904</v>
       </c>
       <c r="C19" t="n">
-        <v>77356.3737302722</v>
+        <v>191456.483086079</v>
       </c>
       <c r="D19" t="n">
-        <v>29125.43585501</v>
+        <v>136497.371125408</v>
       </c>
       <c r="E19" t="n">
-        <v>893727.39709272</v>
+        <v>521024.136681469</v>
       </c>
       <c r="F19" t="n">
-        <v>1289967.75544624</v>
+        <v>645532.677860193</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>224426</v>
       </c>
       <c r="I19" t="n">
-        <v>110282.977540571</v>
+        <v>105816.721949904</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>283294.825995246</v>
+        <v>282120.416664235</v>
       </c>
       <c r="C20" t="n">
-        <v>51117.9485255163</v>
+        <v>156496.791404981</v>
       </c>
       <c r="D20" t="n">
-        <v>15239.157724697</v>
+        <v>108006.096161838</v>
       </c>
       <c r="E20" t="n">
-        <v>789331.660765911</v>
+        <v>458855.639248021</v>
       </c>
       <c r="F20" t="n">
-        <v>1168580.04126103</v>
+        <v>575703.32804759</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>162987</v>
       </c>
       <c r="I20" t="n">
-        <v>120307.825995246</v>
+        <v>119133.416664235</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>174921.955876165</v>
+        <v>159705.501355458</v>
       </c>
       <c r="C21" t="n">
-        <v>14876.9129205413</v>
+        <v>75208.0364933815</v>
       </c>
       <c r="D21" t="n">
-        <v>1491.47207370979</v>
+        <v>45630.8200115598</v>
       </c>
       <c r="E21" t="n">
-        <v>563631.808531966</v>
+        <v>288856.156420421</v>
       </c>
       <c r="F21" t="n">
-        <v>883429.315163154</v>
+        <v>378114.292950508</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>71283</v>
       </c>
       <c r="I21" t="n">
-        <v>103638.955876165</v>
+        <v>88422.5013554582</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>169712.535232672</v>
+        <v>165706.422436679</v>
       </c>
       <c r="C22" t="n">
-        <v>15873.1881741792</v>
+        <v>78040.9529739991</v>
       </c>
       <c r="D22" t="n">
-        <v>1584.82825113166</v>
+        <v>47353.1451443988</v>
       </c>
       <c r="E22" t="n">
-        <v>596743.788271478</v>
+        <v>299693.35647831</v>
       </c>
       <c r="F22" t="n">
-        <v>936890.356788686</v>
+        <v>392291.828806739</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>86635</v>
       </c>
       <c r="I22" t="n">
-        <v>83077.5352326723</v>
+        <v>79071.4224366794</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>154778.352610841</v>
+        <v>154137.757921264</v>
       </c>
       <c r="C23" t="n">
-        <v>13735.3302146054</v>
+        <v>70146.6486841817</v>
       </c>
       <c r="D23" t="n">
-        <v>1022.41793905667</v>
+        <v>41357.6899229519</v>
       </c>
       <c r="E23" t="n">
-        <v>601894.957924291</v>
+        <v>284677.339042268</v>
       </c>
       <c r="F23" t="n">
-        <v>953044.700134786</v>
+        <v>375671.122158487</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>132070</v>
       </c>
       <c r="I23" t="n">
-        <v>22708.352610841</v>
+        <v>22067.7579212638</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>133760.586281392</v>
+        <v>121469.440292924</v>
       </c>
       <c r="C24" t="n">
-        <v>7367.72624024737</v>
+        <v>50274.3896775487</v>
       </c>
       <c r="D24" t="n">
-        <v>116.261527877653</v>
+        <v>27278.7175696658</v>
       </c>
       <c r="E24" t="n">
-        <v>587136.964356816</v>
+        <v>237253.989480886</v>
       </c>
       <c r="F24" t="n">
-        <v>942199.392877609</v>
+        <v>319810.789525865</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>113473</v>
       </c>
       <c r="I24" t="n">
-        <v>20287.5862813919</v>
+        <v>7996.44029292374</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>104371.45186723</v>
+        <v>85592.5328092909</v>
       </c>
       <c r="C25" t="n">
-        <v>2459.45770717749</v>
+        <v>30273.7288084922</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>14138.2401890225</v>
       </c>
       <c r="E25" t="n">
-        <v>506619.058231529</v>
+        <v>182256.551062828</v>
       </c>
       <c r="F25" t="n">
-        <v>840496.017682454</v>
+        <v>253576.335665258</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>74421</v>
       </c>
       <c r="I25" t="n">
-        <v>29950.4518672298</v>
+        <v>11171.5328092909</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>64842.1547980633</v>
+        <v>43395.4102877194</v>
       </c>
       <c r="C26" t="n">
-        <v>27.4305813201427</v>
+        <v>9920.23958050071</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>2747.73541803251</v>
       </c>
       <c r="E26" t="n">
-        <v>385493.05468253</v>
+        <v>113409.850638197</v>
       </c>
       <c r="F26" t="n">
-        <v>677415.36284662</v>
+        <v>169229.47254625</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,10 +1216,10 @@
         <v>44183</v>
       </c>
       <c r="I26" t="n">
-        <v>20659.1547980633</v>
+        <v>-787.589712280649</v>
       </c>
       <c r="J26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>36437.9594248114</v>
+        <v>17416.3511518916</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1475.41985820342</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>29.3518879586832</v>
       </c>
       <c r="E27" t="n">
-        <v>307353.915631135</v>
+        <v>63252.7815293464</v>
       </c>
       <c r="F27" t="n">
-        <v>569835.870502788</v>
+        <v>104227.415634949</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,10 +1248,10 @@
         <v>18134</v>
       </c>
       <c r="I27" t="n">
-        <v>18303.9594248114</v>
+        <v>-717.648848108442</v>
       </c>
       <c r="J27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>65020.7923337705</v>
+        <v>40546.003978958</v>
       </c>
       <c r="C28" t="n">
-        <v>16.6480962398356</v>
+        <v>7907.22867185098</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1718.18385693941</v>
       </c>
       <c r="E28" t="n">
-        <v>488126.671218424</v>
+        <v>112948.504996659</v>
       </c>
       <c r="F28" t="n">
-        <v>838267.045081236</v>
+        <v>172023.941641809</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>33287</v>
       </c>
       <c r="I28" t="n">
-        <v>31733.7923337705</v>
+        <v>7259.00397895799</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>162621.133035637</v>
+        <v>128056.180432205</v>
       </c>
       <c r="C29" t="n">
-        <v>8025.99920216501</v>
+        <v>47516.5857716727</v>
       </c>
       <c r="D29" t="n">
-        <v>59.1068613573625</v>
+        <v>23270.8309478503</v>
       </c>
       <c r="E29" t="n">
-        <v>867158.58572206</v>
+        <v>265800.079553173</v>
       </c>
       <c r="F29" t="n">
-        <v>1367398.3096196</v>
+        <v>366416.427095596</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>44794</v>
       </c>
       <c r="I29" t="n">
-        <v>117827.133035637</v>
+        <v>83262.1804322051</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>300084.122310934</v>
+        <v>273531.482966997</v>
       </c>
       <c r="C30" t="n">
-        <v>37887.1625174603</v>
+        <v>131169.25168853</v>
       </c>
       <c r="D30" t="n">
-        <v>5988.46814492595</v>
+        <v>80782.9214604302</v>
       </c>
       <c r="E30" t="n">
-        <v>1237912.78371872</v>
+        <v>489187.331132662</v>
       </c>
       <c r="F30" t="n">
-        <v>1867914.99079664</v>
+        <v>637541.281466915</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>70042</v>
       </c>
       <c r="I30" t="n">
-        <v>230042.122310934</v>
+        <v>203489.482966997</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>345117.420313256</v>
+        <v>321135.915970343</v>
       </c>
       <c r="C31" t="n">
-        <v>47231.5228150507</v>
+        <v>159460.604279587</v>
       </c>
       <c r="D31" t="n">
-        <v>8697.63787293184</v>
+        <v>101018.876845799</v>
       </c>
       <c r="E31" t="n">
-        <v>1282040.17093755</v>
+        <v>561833.753729637</v>
       </c>
       <c r="F31" t="n">
-        <v>1937812.57948955</v>
+        <v>725915.848879774</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>140661</v>
       </c>
       <c r="I31" t="n">
-        <v>204456.420313256</v>
+        <v>180474.915970343</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>299553.281507999</v>
+        <v>273987.435269197</v>
       </c>
       <c r="C32" t="n">
-        <v>28979.0084271612</v>
+        <v>128237.762911579</v>
       </c>
       <c r="D32" t="n">
-        <v>3113.74877502349</v>
+        <v>77410.8927956366</v>
       </c>
       <c r="E32" t="n">
-        <v>1145104.12002106</v>
+        <v>497430.656665282</v>
       </c>
       <c r="F32" t="n">
-        <v>1770009.57862407</v>
+        <v>652095.590672404</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>108973</v>
       </c>
       <c r="I32" t="n">
-        <v>190580.281507999</v>
+        <v>165014.435269197</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>191968.033697034</v>
+        <v>154103.303149398</v>
       </c>
       <c r="C33" t="n">
-        <v>5936.08830935258</v>
+        <v>57716.7279857453</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0436919456946547</v>
+        <v>28523.2033312383</v>
       </c>
       <c r="E33" t="n">
-        <v>851048.842954823</v>
+        <v>318256.095384129</v>
       </c>
       <c r="F33" t="n">
-        <v>1385560.70209569</v>
+        <v>437925.159253139</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>54528</v>
       </c>
       <c r="I33" t="n">
-        <v>137440.033697034</v>
+        <v>99575.3031493979</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>186177.755250716</v>
+        <v>159983.041967265</v>
       </c>
       <c r="C34" t="n">
-        <v>6624.767915963</v>
+        <v>59930.5975426261</v>
       </c>
       <c r="D34" t="n">
-        <v>0.704329429384888</v>
+        <v>29622.8960511789</v>
       </c>
       <c r="E34" t="n">
-        <v>890555.753447213</v>
+        <v>330363.977324796</v>
       </c>
       <c r="F34" t="n">
-        <v>1449358.7892403</v>
+        <v>454568.235019352</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>44872</v>
       </c>
       <c r="I34" t="n">
-        <v>141305.755250716</v>
+        <v>115111.041967265</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>168764.922668157</v>
+        <v>148681.981580836</v>
       </c>
       <c r="C35" t="n">
-        <v>5536.39051589146</v>
+        <v>53123.9940638324</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>25063.7762467904</v>
       </c>
       <c r="E35" t="n">
-        <v>893879.812554028</v>
+        <v>314908.577865021</v>
       </c>
       <c r="F35" t="n">
-        <v>1463717.2646423</v>
+        <v>437296.594240347</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>47395</v>
       </c>
       <c r="I35" t="n">
-        <v>121369.922668157</v>
+        <v>101286.981580836</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>146389.96790621</v>
+        <v>116794.610136934</v>
       </c>
       <c r="C36" t="n">
-        <v>2299.82069790093</v>
+        <v>36552.3484485468</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>15003.5656380137</v>
       </c>
       <c r="E36" t="n">
-        <v>871732.394370055</v>
+        <v>264675.714925666</v>
       </c>
       <c r="F36" t="n">
-        <v>1442863.91156126</v>
+        <v>376443.919454579</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>50633</v>
       </c>
       <c r="I36" t="n">
-        <v>95756.96790621</v>
+        <v>66161.6101369343</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>116142.74795159</v>
+        <v>81865.9257729596</v>
       </c>
       <c r="C37" t="n">
-        <v>362.552952218904</v>
+        <v>20474.5525077639</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>6413.64960918306</v>
       </c>
       <c r="E37" t="n">
-        <v>764606.656348293</v>
+        <v>205879.828183585</v>
       </c>
       <c r="F37" t="n">
-        <v>1302637.07199737</v>
+        <v>303360.306102221</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>27747</v>
       </c>
       <c r="I37" t="n">
-        <v>88395.7479515904</v>
+        <v>54118.9257729596</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>77809.5495471991</v>
+        <v>40995.7772512855</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>5393.44354797056</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>527.548543842099</v>
       </c>
       <c r="E38" t="n">
-        <v>602759.758915921</v>
+        <v>131135.531038003</v>
       </c>
       <c r="F38" t="n">
-        <v>1079514.97632809</v>
+        <v>208343.214112314</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>2484</v>
       </c>
       <c r="I38" t="n">
-        <v>75325.5495471991</v>
+        <v>38511.7772512855</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>47157.9883559624</v>
+        <v>16090.5406069551</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>369.627252457787</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>495685.484369032</v>
+        <v>75714.8595168657</v>
       </c>
       <c r="F39" t="n">
-        <v>928951.433697405</v>
+        <v>133566.322404538</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>3935</v>
       </c>
       <c r="I39" t="n">
-        <v>43222.9883559624</v>
+        <v>12155.5406069551</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>71494.5968501535</v>
+        <v>38249.9626170623</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>4006.47509203712</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>199.737830477209</v>
       </c>
       <c r="E40" t="n">
-        <v>733327.610892229</v>
+        <v>131092.042140974</v>
       </c>
       <c r="F40" t="n">
-        <v>1283995.98263997</v>
+        <v>212500.621643888</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>9631</v>
       </c>
       <c r="I40" t="n">
-        <v>61863.5968501535</v>
+        <v>28618.9626170623</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>171303.964370679</v>
+        <v>123221.043809723</v>
       </c>
       <c r="C41" t="n">
-        <v>2906.22644962133</v>
+        <v>33804.5980436802</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>11908.0985546531</v>
       </c>
       <c r="E41" t="n">
-        <v>1210115.22805856</v>
+        <v>297289.521549268</v>
       </c>
       <c r="F41" t="n">
-        <v>1957912.05827758</v>
+        <v>432013.396866442</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>20105</v>
       </c>
       <c r="I41" t="n">
-        <v>151198.964370679</v>
+        <v>103116.043809723</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>311674.595194842</v>
+        <v>265636.973874824</v>
       </c>
       <c r="C42" t="n">
-        <v>22332.6941477881</v>
+        <v>103748.420895563</v>
       </c>
       <c r="D42" t="n">
-        <v>815.480607813118</v>
+        <v>53363.8156868446</v>
       </c>
       <c r="E42" t="n">
-        <v>1659882.89876531</v>
+        <v>536114.554478257</v>
       </c>
       <c r="F42" t="n">
-        <v>2573429.25942206</v>
+        <v>731508.057469353</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>91259</v>
       </c>
       <c r="I42" t="n">
-        <v>220415.595194842</v>
+        <v>174377.973874824</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>362645.123257044</v>
+        <v>312380.126738372</v>
       </c>
       <c r="C43" t="n">
-        <v>29305.9672301651</v>
+        <v>127953.974803068</v>
       </c>
       <c r="D43" t="n">
-        <v>1721.08142722362</v>
+        <v>68777.1466727536</v>
       </c>
       <c r="E43" t="n">
-        <v>1709696.66548323</v>
+        <v>613777.512169564</v>
       </c>
       <c r="F43" t="n">
-        <v>2652290.93848246</v>
+        <v>829192.803953772</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>433084</v>
       </c>
       <c r="I43" t="n">
-        <v>-70438.8767429563</v>
+        <v>-120703.873261628</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>328438.973641284</v>
+        <v>266084.460023464</v>
       </c>
       <c r="C44" t="n">
-        <v>16393.8039872645</v>
+        <v>100773.860426245</v>
       </c>
       <c r="D44" t="n">
-        <v>198.341255625441</v>
+        <v>50339.8755331517</v>
       </c>
       <c r="E44" t="n">
-        <v>1541329.94147859</v>
+        <v>546198.204086184</v>
       </c>
       <c r="F44" t="n">
-        <v>2440129.09177644</v>
+        <v>749915.923025817</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>457212</v>
       </c>
       <c r="I44" t="n">
-        <v>-128773.026358716</v>
+        <v>-191127.539976536</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>221203.884830806</v>
+        <v>148653.48929659</v>
       </c>
       <c r="C45" t="n">
-        <v>2012.88440145311</v>
+        <v>41553.4058027089</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>14974.3330169628</v>
       </c>
       <c r="E45" t="n">
-        <v>1179619.51172746</v>
+        <v>355560.067920815</v>
       </c>
       <c r="F45" t="n">
-        <v>1958455.67282327</v>
+        <v>515179.522330337</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,10 +1824,10 @@
         <v>193538</v>
       </c>
       <c r="I45" t="n">
-        <v>27665.8848308059</v>
+        <v>-44884.5107034101</v>
       </c>
       <c r="J45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>206698.593631119</v>
+        <v>154399.75004424</v>
       </c>
       <c r="C46" t="n">
-        <v>2401.21253373489</v>
+        <v>43219.8623699413</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>15601.0121077734</v>
       </c>
       <c r="E46" t="n">
-        <v>1225839.12124552</v>
+        <v>369065.713936341</v>
       </c>
       <c r="F46" t="n">
-        <v>2032865.40467074</v>
+        <v>534630.884520827</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,10 +1856,10 @@
         <v>166980</v>
       </c>
       <c r="I46" t="n">
-        <v>39718.593631119</v>
+        <v>-12580.2499557599</v>
       </c>
       <c r="J46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>184131.154896708</v>
+        <v>143356.857800147</v>
       </c>
       <c r="C47" t="n">
-        <v>1879.78259450977</v>
+        <v>37611.3535314524</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>12533.3988462301</v>
       </c>
       <c r="E47" t="n">
-        <v>1227588.2213728</v>
+        <v>352952.601869321</v>
       </c>
       <c r="F47" t="n">
-        <v>2045751.13545121</v>
+        <v>516409.459286459</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,10 +1888,10 @@
         <v>165527</v>
       </c>
       <c r="I47" t="n">
-        <v>18604.154896708</v>
+        <v>-22170.1421998532</v>
       </c>
       <c r="J47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>162064.687215282</v>
+        <v>112238.908210616</v>
       </c>
       <c r="C48" t="n">
-        <v>469.664275501941</v>
+        <v>24451.8464614906</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>6316.10848515479</v>
       </c>
       <c r="E48" t="n">
-        <v>1198204.57813125</v>
+        <v>299221.33250357</v>
       </c>
       <c r="F48" t="n">
-        <v>2015165.26412935</v>
+        <v>449382.338388157</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>92955</v>
       </c>
       <c r="I48" t="n">
-        <v>69109.6872152817</v>
+        <v>19283.9082106161</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>132484.875632229</v>
+        <v>78245.8816889244</v>
       </c>
       <c r="C49" t="n">
-        <v>2.57199653831654</v>
+        <v>12318.5278828141</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>1809.98492418976</v>
       </c>
       <c r="E49" t="n">
-        <v>1064239.19210794</v>
+        <v>235761.245942212</v>
       </c>
       <c r="F49" t="n">
-        <v>1836466.56700305</v>
+        <v>367909.211781271</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>46150</v>
       </c>
       <c r="I49" t="n">
-        <v>86334.8756322285</v>
+        <v>32095.8816889244</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/HFMD.xlsx
+++ b/outcome/appendix/forecast/HFMD.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>34348.5909854281</v>
+        <v>40818.042910086</v>
       </c>
       <c r="C2" t="n">
-        <v>18524.5466442678</v>
+        <v>16969.3413389773</v>
       </c>
       <c r="D2" t="n">
-        <v>12516.3042163576</v>
+        <v>11799.1096832131</v>
       </c>
       <c r="E2" t="n">
-        <v>56938.0041013796</v>
+        <v>91580.800353859</v>
       </c>
       <c r="F2" t="n">
-        <v>71993.364448662</v>
+        <v>109991.305899868</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>28355</v>
       </c>
       <c r="I2" t="n">
-        <v>5993.59098542811</v>
+        <v>12463.042910086</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>17225.1347613459</v>
+        <v>27123.3059108151</v>
       </c>
       <c r="C3" t="n">
-        <v>5300.11369953773</v>
+        <v>3029.84599671253</v>
       </c>
       <c r="D3" t="n">
-        <v>2134.66899164346</v>
+        <v>1047.12759951786</v>
       </c>
       <c r="E3" t="n">
-        <v>39359.9667566109</v>
+        <v>106617.546434718</v>
       </c>
       <c r="F3" t="n">
-        <v>56142.3903736762</v>
+        <v>135700.866561421</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>3263</v>
       </c>
       <c r="I3" t="n">
-        <v>13962.1347613459</v>
+        <v>23860.3059108151</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>44320.3435513285</v>
+        <v>48825.067791414</v>
       </c>
       <c r="C4" t="n">
-        <v>18528.9080846918</v>
+        <v>11293.5985326989</v>
       </c>
       <c r="D4" t="n">
-        <v>10145.0525250755</v>
+        <v>5224.22035001796</v>
       </c>
       <c r="E4" t="n">
-        <v>86066.5442560538</v>
+        <v>118993.31721143</v>
       </c>
       <c r="F4" t="n">
-        <v>115763.242430763</v>
+        <v>149585.235931885</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>2869</v>
       </c>
       <c r="I4" t="n">
-        <v>41451.3435513285</v>
+        <v>45956.067791414</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>137342.337078681</v>
+        <v>132442.004735931</v>
       </c>
       <c r="C5" t="n">
-        <v>77029.2362901143</v>
+        <v>53361.7669474565</v>
       </c>
       <c r="D5" t="n">
-        <v>53598.6685678545</v>
+        <v>32843.3734467472</v>
       </c>
       <c r="E5" t="n">
-        <v>221708.399522547</v>
+        <v>281131.574674147</v>
       </c>
       <c r="F5" t="n">
-        <v>277308.824878021</v>
+        <v>366922.30307366</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>3001</v>
       </c>
       <c r="I5" t="n">
-        <v>134341.337078681</v>
+        <v>129441.004735931</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>293626.841379621</v>
+        <v>258161.128878756</v>
       </c>
       <c r="C6" t="n">
-        <v>188459.986662911</v>
+        <v>124914.982993537</v>
       </c>
       <c r="D6" t="n">
-        <v>144339.133709844</v>
+        <v>84280.3201959349</v>
       </c>
       <c r="E6" t="n">
-        <v>430482.841080648</v>
+        <v>490492.591485906</v>
       </c>
       <c r="F6" t="n">
-        <v>517005.096308066</v>
+        <v>626625.938926748</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>3919</v>
       </c>
       <c r="I6" t="n">
-        <v>289707.841379621</v>
+        <v>254242.128878756</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>336409.591827704</v>
+        <v>297249.544712104</v>
       </c>
       <c r="C7" t="n">
-        <v>218470.695566752</v>
+        <v>139467.571233064</v>
       </c>
       <c r="D7" t="n">
-        <v>168666.11526346</v>
+        <v>90322.7224636516</v>
       </c>
       <c r="E7" t="n">
-        <v>488898.500045351</v>
+        <v>526004.171453112</v>
       </c>
       <c r="F7" t="n">
-        <v>584933.998348548</v>
+        <v>682831.714867484</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>6260</v>
       </c>
       <c r="I7" t="n">
-        <v>330149.591827704</v>
+        <v>290989.544712104</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>270531.396458044</v>
+        <v>253146.64626667</v>
       </c>
       <c r="C8" t="n">
-        <v>167282.595349844</v>
+        <v>97563.460311081</v>
       </c>
       <c r="D8" t="n">
-        <v>124864.687722803</v>
+        <v>54730.1531832677</v>
       </c>
       <c r="E8" t="n">
-        <v>407648.503365146</v>
+        <v>455941.707643371</v>
       </c>
       <c r="F8" t="n">
-        <v>495378.569145499</v>
+        <v>612283.628287789</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>59143</v>
       </c>
       <c r="I8" t="n">
-        <v>211388.396458044</v>
+        <v>194003.64626667</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>153472.954327853</v>
+        <v>156469.94900374</v>
       </c>
       <c r="C9" t="n">
-        <v>83020.0910059289</v>
+        <v>37221.7075011407</v>
       </c>
       <c r="D9" t="n">
-        <v>56222.5391788139</v>
+        <v>15832.917725148</v>
       </c>
       <c r="E9" t="n">
-        <v>253891.289445877</v>
+        <v>327212.782412879</v>
       </c>
       <c r="F9" t="n">
-        <v>320761.184695042</v>
+        <v>440637.388400578</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>59143</v>
       </c>
       <c r="I9" t="n">
-        <v>94329.954327853</v>
+        <v>97326.9490037398</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>162227.583544687</v>
+        <v>153359.096712315</v>
       </c>
       <c r="C10" t="n">
-        <v>87844.4112598699</v>
+        <v>37904.9116323652</v>
       </c>
       <c r="D10" t="n">
-        <v>59535.1591252955</v>
+        <v>15165.6906795127</v>
       </c>
       <c r="E10" t="n">
-        <v>268192.694496562</v>
+        <v>338407.23251308</v>
       </c>
       <c r="F10" t="n">
-        <v>338736.12301362</v>
+        <v>488510.304953988</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>115170</v>
       </c>
       <c r="I10" t="n">
-        <v>47057.5835446866</v>
+        <v>38189.0967123155</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>166317.777464448</v>
+        <v>139994.219979486</v>
       </c>
       <c r="C11" t="n">
-        <v>89521.8128843183</v>
+        <v>33218.8968236763</v>
       </c>
       <c r="D11" t="n">
-        <v>60396.9203311249</v>
+        <v>11541.58741864</v>
       </c>
       <c r="E11" t="n">
-        <v>276058.481517867</v>
+        <v>343809.331753448</v>
       </c>
       <c r="F11" t="n">
-        <v>349239.028950949</v>
+        <v>504580.630850103</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>199875</v>
       </c>
       <c r="I11" t="n">
-        <v>-33557.2225355524</v>
+        <v>-59880.780020514</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>132545.421848697</v>
+        <v>116688.759912146</v>
       </c>
       <c r="C12" t="n">
-        <v>66357.395783082</v>
+        <v>20796.1861955972</v>
       </c>
       <c r="D12" t="n">
-        <v>42313.7170257204</v>
+        <v>5736.14460123661</v>
       </c>
       <c r="E12" t="n">
-        <v>230679.735873421</v>
+        <v>336344.682009232</v>
       </c>
       <c r="F12" t="n">
-        <v>297431.865597511</v>
+        <v>503802.853397772</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>189017</v>
       </c>
       <c r="I12" t="n">
-        <v>-56471.5781513029</v>
+        <v>-72328.2400878536</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>95852.2846118709</v>
+        <v>86721.9179422011</v>
       </c>
       <c r="C13" t="n">
-        <v>42844.7214993715</v>
+        <v>9900.15329465601</v>
       </c>
       <c r="D13" t="n">
-        <v>24876.6315198109</v>
+        <v>1403.21760653589</v>
       </c>
       <c r="E13" t="n">
-        <v>178956.763214446</v>
+        <v>287060.205713349</v>
       </c>
       <c r="F13" t="n">
-        <v>237141.517904484</v>
+        <v>447258.953633624</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>131798</v>
       </c>
       <c r="I13" t="n">
-        <v>-35945.7153881291</v>
+        <v>-45076.0820577989</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>48635.9897052048</v>
+        <v>50454.5508122049</v>
       </c>
       <c r="C14" t="n">
-        <v>16202.9428362723</v>
+        <v>1451.38074800366</v>
       </c>
       <c r="D14" t="n">
-        <v>7114.20491891545</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>106820.74226239</v>
+        <v>208472.463201006</v>
       </c>
       <c r="F14" t="n">
-        <v>150269.896013291</v>
+        <v>347572.677277535</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>63209</v>
       </c>
       <c r="I14" t="n">
-        <v>-14573.0102947952</v>
+        <v>-12754.4491877951</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>19517.7735926831</v>
+        <v>29516.4615028746</v>
       </c>
       <c r="C15" t="n">
-        <v>3506.09359954635</v>
+        <v>0.0666228425815785</v>
       </c>
       <c r="D15" t="n">
-        <v>661.79379538288</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>56085.5248247752</v>
+        <v>158334.717087433</v>
       </c>
       <c r="F15" t="n">
-        <v>86254.9701481414</v>
+        <v>282276.934088768</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>18529</v>
       </c>
       <c r="I15" t="n">
-        <v>988.773592683141</v>
+        <v>10987.4615028746</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>43475.7376458899</v>
+        <v>59253.1789248169</v>
       </c>
       <c r="C16" t="n">
-        <v>13029.4502288385</v>
+        <v>1155.9204430413</v>
       </c>
       <c r="D16" t="n">
-        <v>5094.32155025523</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>100621.714372622</v>
+        <v>281056.355799986</v>
       </c>
       <c r="F16" t="n">
-        <v>144161.326515934</v>
+        <v>461044.147063238</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>36206</v>
       </c>
       <c r="I16" t="n">
-        <v>7269.73764588992</v>
+        <v>23047.1789248169</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>133528.816848379</v>
+        <v>154596.032677217</v>
       </c>
       <c r="C17" t="n">
-        <v>62461.0618291061</v>
+        <v>19776.7590418918</v>
       </c>
       <c r="D17" t="n">
-        <v>37686.5073529583</v>
+        <v>3660.17400927143</v>
       </c>
       <c r="E17" t="n">
-        <v>242510.713329424</v>
+        <v>561508.339159588</v>
       </c>
       <c r="F17" t="n">
-        <v>317957.703205728</v>
+        <v>842415.775027535</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,10 +928,10 @@
         <v>144167</v>
       </c>
       <c r="I17" t="n">
-        <v>-10638.1831516206</v>
+        <v>10429.0326772172</v>
       </c>
       <c r="J17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>281958.947782113</v>
+        <v>288026.917783123</v>
       </c>
       <c r="C18" t="n">
-        <v>159248.497168831</v>
+        <v>65076.5351090309</v>
       </c>
       <c r="D18" t="n">
-        <v>111383.675083717</v>
+        <v>23542.667786698</v>
       </c>
       <c r="E18" t="n">
-        <v>452979.174669792</v>
+        <v>857823.922876838</v>
       </c>
       <c r="F18" t="n">
-        <v>565457.952757856</v>
+        <v>1232230.13038393</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>240838</v>
       </c>
       <c r="I18" t="n">
-        <v>41120.947782113</v>
+        <v>47188.9177831233</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>330242.721949904</v>
+        <v>325074.487408575</v>
       </c>
       <c r="C19" t="n">
-        <v>191456.483086079</v>
+        <v>77356.3530865548</v>
       </c>
       <c r="D19" t="n">
-        <v>136497.371125408</v>
+        <v>29125.422434331</v>
       </c>
       <c r="E19" t="n">
-        <v>521024.136681469</v>
+        <v>893782.059427732</v>
       </c>
       <c r="F19" t="n">
-        <v>645532.677860193</v>
+        <v>1290015.25295284</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>224426</v>
       </c>
       <c r="I19" t="n">
-        <v>105816.721949904</v>
+        <v>100648.487408575</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>282120.416664235</v>
+        <v>272810.224844852</v>
       </c>
       <c r="C20" t="n">
-        <v>156496.791404981</v>
+        <v>51117.9441410542</v>
       </c>
       <c r="D20" t="n">
-        <v>108006.096161838</v>
+        <v>15239.141263487</v>
       </c>
       <c r="E20" t="n">
-        <v>458855.639248021</v>
+        <v>783047.547384572</v>
       </c>
       <c r="F20" t="n">
-        <v>575703.32804759</v>
+        <v>1160477.31894237</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>162987</v>
       </c>
       <c r="I20" t="n">
-        <v>119133.416664235</v>
+        <v>109823.224844852</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>159705.501355458</v>
+        <v>167539.932700804</v>
       </c>
       <c r="C21" t="n">
-        <v>75208.0364933815</v>
+        <v>14876.9013203059</v>
       </c>
       <c r="D21" t="n">
-        <v>45630.8200115598</v>
+        <v>1491.4085264081</v>
       </c>
       <c r="E21" t="n">
-        <v>288856.156420421</v>
+        <v>560861.483554394</v>
       </c>
       <c r="F21" t="n">
-        <v>378114.292950508</v>
+        <v>879722.764595555</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>71283</v>
       </c>
       <c r="I21" t="n">
-        <v>88422.5013554582</v>
+        <v>96256.9327008041</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>165706.422436679</v>
+        <v>165087.766767776</v>
       </c>
       <c r="C22" t="n">
-        <v>78040.9529739991</v>
+        <v>15873.1778253594</v>
       </c>
       <c r="D22" t="n">
-        <v>47353.1451443988</v>
+        <v>1584.76572533457</v>
       </c>
       <c r="E22" t="n">
-        <v>299693.35647831</v>
+        <v>598123.90857677</v>
       </c>
       <c r="F22" t="n">
-        <v>392291.828806739</v>
+        <v>938729.701664693</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>86635</v>
       </c>
       <c r="I22" t="n">
-        <v>79071.4224366794</v>
+        <v>78452.7667677758</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>154137.757921264</v>
+        <v>151158.423248932</v>
       </c>
       <c r="C23" t="n">
-        <v>70146.6486841817</v>
+        <v>13735.3165220967</v>
       </c>
       <c r="D23" t="n">
-        <v>41357.6899229519</v>
+        <v>1022.34828011492</v>
       </c>
       <c r="E23" t="n">
-        <v>284677.339042268</v>
+        <v>599335.020259788</v>
       </c>
       <c r="F23" t="n">
-        <v>375671.122158487</v>
+        <v>949606.100497793</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>132070</v>
       </c>
       <c r="I23" t="n">
-        <v>22067.7579212638</v>
+        <v>19088.423248932</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>121469.440292924</v>
+        <v>129167.332911146</v>
       </c>
       <c r="C24" t="n">
-        <v>50274.3896775487</v>
+        <v>7367.6976223084</v>
       </c>
       <c r="D24" t="n">
-        <v>27278.7175696658</v>
+        <v>116.171042933713</v>
       </c>
       <c r="E24" t="n">
-        <v>237253.989480886</v>
+        <v>582859.130369145</v>
       </c>
       <c r="F24" t="n">
-        <v>319810.789525865</v>
+        <v>936407.41725986</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>113473</v>
       </c>
       <c r="I24" t="n">
-        <v>7996.44029292374</v>
+        <v>15694.3329111463</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>85592.5328092909</v>
+        <v>97752.8789037603</v>
       </c>
       <c r="C25" t="n">
-        <v>30273.7288084922</v>
+        <v>2459.40366549666</v>
       </c>
       <c r="D25" t="n">
-        <v>14138.2401890225</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>182256.551062828</v>
+        <v>507272.51086822</v>
       </c>
       <c r="F25" t="n">
-        <v>253576.335665258</v>
+        <v>841411.005557129</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>74421</v>
       </c>
       <c r="I25" t="n">
-        <v>11171.5328092909</v>
+        <v>23331.8789037603</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>43395.4102877194</v>
+        <v>57793.6040910923</v>
       </c>
       <c r="C26" t="n">
-        <v>9920.23958050071</v>
+        <v>27.3346761133149</v>
       </c>
       <c r="D26" t="n">
-        <v>2747.73541803251</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>113409.850638197</v>
+        <v>388189.72884958</v>
       </c>
       <c r="F26" t="n">
-        <v>169229.47254625</v>
+        <v>681301.078731054</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,10 +1216,10 @@
         <v>44183</v>
       </c>
       <c r="I26" t="n">
-        <v>-787.589712280649</v>
+        <v>13610.6040910923</v>
       </c>
       <c r="J26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>17416.3511518916</v>
+        <v>33326.2543472187</v>
       </c>
       <c r="C27" t="n">
-        <v>1475.41985820342</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>29.3518879586832</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>63252.7815293464</v>
+        <v>309226.645517564</v>
       </c>
       <c r="F27" t="n">
-        <v>104227.415634949</v>
+        <v>572635.590998868</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,10 +1248,10 @@
         <v>18134</v>
       </c>
       <c r="I27" t="n">
-        <v>-717.648848108442</v>
+        <v>15192.2543472187</v>
       </c>
       <c r="J27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>40546.003978958</v>
+        <v>68243.6312986068</v>
       </c>
       <c r="C28" t="n">
-        <v>7907.22867185098</v>
+        <v>16.551143429864</v>
       </c>
       <c r="D28" t="n">
-        <v>1718.18385693941</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>112948.504996659</v>
+        <v>486770.718486297</v>
       </c>
       <c r="F28" t="n">
-        <v>172023.941641809</v>
+        <v>836375.31734631</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>33287</v>
       </c>
       <c r="I28" t="n">
-        <v>7259.00397895799</v>
+        <v>34956.6312986068</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>128056.180432205</v>
+        <v>172886.107111505</v>
       </c>
       <c r="C29" t="n">
-        <v>47516.5857716727</v>
+        <v>8025.97219429125</v>
       </c>
       <c r="D29" t="n">
-        <v>23270.8309478503</v>
+        <v>59.0132981346185</v>
       </c>
       <c r="E29" t="n">
-        <v>265800.079553173</v>
+        <v>864983.234535706</v>
       </c>
       <c r="F29" t="n">
-        <v>366416.427095596</v>
+        <v>1364529.33722458</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>44794</v>
       </c>
       <c r="I29" t="n">
-        <v>83262.1804322051</v>
+        <v>128092.107111505</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>273531.482966997</v>
+        <v>313795.920255571</v>
       </c>
       <c r="C30" t="n">
-        <v>131169.25168853</v>
+        <v>37887.15521905</v>
       </c>
       <c r="D30" t="n">
-        <v>80782.9214604302</v>
+        <v>5988.43066392201</v>
       </c>
       <c r="E30" t="n">
-        <v>489187.331132662</v>
+        <v>1242685.76281014</v>
       </c>
       <c r="F30" t="n">
-        <v>637541.281466915</v>
+        <v>1874196.17184251</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>70042</v>
       </c>
       <c r="I30" t="n">
-        <v>203489.482966997</v>
+        <v>243753.920255571</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>321135.915970343</v>
+        <v>350411.044489776</v>
       </c>
       <c r="C31" t="n">
-        <v>159460.604279587</v>
+        <v>47231.5118673195</v>
       </c>
       <c r="D31" t="n">
-        <v>101018.876845799</v>
+        <v>8697.60754104674</v>
       </c>
       <c r="E31" t="n">
-        <v>561833.753729637</v>
+        <v>1282846.47802831</v>
       </c>
       <c r="F31" t="n">
-        <v>725915.848879774</v>
+        <v>1938941.97558721</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>140661</v>
       </c>
       <c r="I31" t="n">
-        <v>180474.915970343</v>
+        <v>209750.044489776</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>273987.435269197</v>
+        <v>292238.051167772</v>
       </c>
       <c r="C32" t="n">
-        <v>128237.762911579</v>
+        <v>28979.0037320135</v>
       </c>
       <c r="D32" t="n">
-        <v>77410.8927956366</v>
+        <v>3113.69830082877</v>
       </c>
       <c r="E32" t="n">
-        <v>497430.656665282</v>
+        <v>1137809.63974753</v>
       </c>
       <c r="F32" t="n">
-        <v>652095.590672404</v>
+        <v>1760442.30389459</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>108973</v>
       </c>
       <c r="I32" t="n">
-        <v>165014.435269197</v>
+        <v>183265.051167772</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>154103.303149398</v>
+        <v>179448.18040895</v>
       </c>
       <c r="C33" t="n">
-        <v>57716.7279857453</v>
+        <v>5936.0547578556</v>
       </c>
       <c r="D33" t="n">
-        <v>28523.2033312383</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>318256.095384129</v>
+        <v>848012.470400179</v>
       </c>
       <c r="F33" t="n">
-        <v>437925.159253139</v>
+        <v>1381488.11999125</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>54528</v>
       </c>
       <c r="I33" t="n">
-        <v>99575.3031493979</v>
+        <v>124920.18040895</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>159983.041967265</v>
+        <v>177269.191719826</v>
       </c>
       <c r="C34" t="n">
-        <v>59930.5975426261</v>
+        <v>6624.73695444284</v>
       </c>
       <c r="D34" t="n">
-        <v>29622.8960511789</v>
+        <v>0.604767713582358</v>
       </c>
       <c r="E34" t="n">
-        <v>330363.977324796</v>
+        <v>892937.804626168</v>
       </c>
       <c r="F34" t="n">
-        <v>454568.235019352</v>
+        <v>1452707.3570193</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>44872</v>
       </c>
       <c r="I34" t="n">
-        <v>115111.041967265</v>
+        <v>132397.191719826</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>148681.981580836</v>
+        <v>165212.043904712</v>
       </c>
       <c r="C35" t="n">
-        <v>53123.9940638324</v>
+        <v>5536.35507267767</v>
       </c>
       <c r="D35" t="n">
-        <v>25063.7762467904</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>314908.577865021</v>
+        <v>891180.171782111</v>
       </c>
       <c r="F35" t="n">
-        <v>437296.594240347</v>
+        <v>1460113.69268822</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>47395</v>
       </c>
       <c r="I35" t="n">
-        <v>101286.981580836</v>
+        <v>117817.043904712</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>116794.610136934</v>
+        <v>144308.611421153</v>
       </c>
       <c r="C36" t="n">
-        <v>36552.3484485468</v>
+        <v>2299.76561530569</v>
       </c>
       <c r="D36" t="n">
-        <v>15003.5656380137</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>264675.714925666</v>
+        <v>866811.438987395</v>
       </c>
       <c r="F36" t="n">
-        <v>376443.919454579</v>
+        <v>1436172.0005355</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>50633</v>
       </c>
       <c r="I36" t="n">
-        <v>66161.6101369343</v>
+        <v>93675.6114211527</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>81865.9257729596</v>
+        <v>111748.301033135</v>
       </c>
       <c r="C37" t="n">
-        <v>20474.5525077639</v>
+        <v>362.470853275504</v>
       </c>
       <c r="D37" t="n">
-        <v>6413.64960918306</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>205879.828183585</v>
+        <v>766010.356266199</v>
       </c>
       <c r="F37" t="n">
-        <v>303360.306102221</v>
+        <v>1304726.95806387</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>27747</v>
       </c>
       <c r="I37" t="n">
-        <v>54118.9257729596</v>
+        <v>84001.301033135</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>40995.7772512855</v>
+        <v>68118.8211009642</v>
       </c>
       <c r="C38" t="n">
-        <v>5393.44354797056</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>527.548543842099</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>131135.531038003</v>
+        <v>606830.423045334</v>
       </c>
       <c r="F38" t="n">
-        <v>208343.214112314</v>
+        <v>1085540.75057412</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>2484</v>
       </c>
       <c r="I38" t="n">
-        <v>38511.7772512855</v>
+        <v>65634.8211009642</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>16090.5406069551</v>
+        <v>39979.494963539</v>
       </c>
       <c r="C39" t="n">
-        <v>369.627252457787</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>75714.8595168657</v>
+        <v>498654.674512121</v>
       </c>
       <c r="F39" t="n">
-        <v>133566.322404538</v>
+        <v>933501.813161669</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>3935</v>
       </c>
       <c r="I39" t="n">
-        <v>12155.5406069551</v>
+        <v>36044.494963539</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>38249.9626170623</v>
+        <v>78199.3178494901</v>
       </c>
       <c r="C40" t="n">
-        <v>4006.47509203712</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>199.737830477209</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>131092.042140974</v>
+        <v>732113.145491049</v>
       </c>
       <c r="F40" t="n">
-        <v>212500.621643888</v>
+        <v>1282397.94587399</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>9631</v>
       </c>
       <c r="I40" t="n">
-        <v>28618.9626170623</v>
+        <v>68568.3178494901</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>123221.043809723</v>
+        <v>189517.694717563</v>
       </c>
       <c r="C41" t="n">
-        <v>33804.5980436802</v>
+        <v>2906.17593480596</v>
       </c>
       <c r="D41" t="n">
-        <v>11908.0985546531</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>297289.521549268</v>
+        <v>1208179.35277998</v>
       </c>
       <c r="F41" t="n">
-        <v>432013.396866442</v>
+        <v>1955475.21159724</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>20105</v>
       </c>
       <c r="I41" t="n">
-        <v>103116.043809723</v>
+        <v>169412.694717563</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>265636.973874824</v>
+        <v>336617.372550921</v>
       </c>
       <c r="C42" t="n">
-        <v>103748.420895563</v>
+        <v>22332.6835203763</v>
       </c>
       <c r="D42" t="n">
-        <v>53363.8156868446</v>
+        <v>815.406948400614</v>
       </c>
       <c r="E42" t="n">
-        <v>536114.554478257</v>
+        <v>1666582.71192085</v>
       </c>
       <c r="F42" t="n">
-        <v>731508.057469353</v>
+        <v>2582561.6071574</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>91259</v>
       </c>
       <c r="I42" t="n">
-        <v>174377.973874824</v>
+        <v>245358.372550921</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>312380.126738372</v>
+        <v>375090.491909221</v>
       </c>
       <c r="C43" t="n">
-        <v>127953.974803068</v>
+        <v>29305.9571781386</v>
       </c>
       <c r="D43" t="n">
-        <v>68777.1466727536</v>
+        <v>1721.01873662045</v>
       </c>
       <c r="E43" t="n">
-        <v>613777.512169564</v>
+        <v>1711626.59006087</v>
       </c>
       <c r="F43" t="n">
-        <v>829192.803953772</v>
+        <v>2655126.03216051</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>433084</v>
       </c>
       <c r="I43" t="n">
-        <v>-120703.873261628</v>
+        <v>-57993.5080907785</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>266084.460023464</v>
+        <v>315360.342342879</v>
       </c>
       <c r="C44" t="n">
-        <v>100773.860426245</v>
+        <v>16393.7910800158</v>
       </c>
       <c r="D44" t="n">
-        <v>50339.8755331517</v>
+        <v>198.253914672941</v>
       </c>
       <c r="E44" t="n">
-        <v>546198.204086184</v>
+        <v>1533399.5433925</v>
       </c>
       <c r="F44" t="n">
-        <v>749915.923025817</v>
+        <v>2429752.27929442</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>457212</v>
       </c>
       <c r="I44" t="n">
-        <v>-191127.539976536</v>
+        <v>-141851.657657121</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>148653.48929659</v>
+        <v>195741.1886999</v>
       </c>
       <c r="C45" t="n">
-        <v>41553.4058027089</v>
+        <v>2012.82683996765</v>
       </c>
       <c r="D45" t="n">
-        <v>14974.3330169628</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>355560.067920815</v>
+        <v>1176637.20120839</v>
       </c>
       <c r="F45" t="n">
-        <v>515179.522330337</v>
+        <v>1954580.39076882</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,10 +1824,10 @@
         <v>193538</v>
       </c>
       <c r="I45" t="n">
-        <v>-44884.5107034101</v>
+        <v>2203.18869990038</v>
       </c>
       <c r="J45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46">
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>154399.75004424</v>
+        <v>193076.394941924</v>
       </c>
       <c r="C46" t="n">
-        <v>43219.8623699413</v>
+        <v>2401.15841797127</v>
       </c>
       <c r="D46" t="n">
-        <v>15601.0121077734</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>369065.713936341</v>
+        <v>1229552.07262793</v>
       </c>
       <c r="F46" t="n">
-        <v>534630.884520827</v>
+        <v>2038279.1300338</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,10 +1856,10 @@
         <v>166980</v>
       </c>
       <c r="I46" t="n">
-        <v>-12580.2499557599</v>
+        <v>26096.3949419236</v>
       </c>
       <c r="J46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47">
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>143356.857800147</v>
+        <v>181345.479967299</v>
       </c>
       <c r="C47" t="n">
-        <v>37611.3535314524</v>
+        <v>1879.72362453686</v>
       </c>
       <c r="D47" t="n">
-        <v>12533.3988462301</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>352952.601869321</v>
+        <v>1225069.16971288</v>
       </c>
       <c r="F47" t="n">
-        <v>516409.459286459</v>
+        <v>2042546.19140075</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,10 +1888,10 @@
         <v>165527</v>
       </c>
       <c r="I47" t="n">
-        <v>-22170.1421998532</v>
+        <v>15818.4799672989</v>
       </c>
       <c r="J47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48">
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>112238.908210616</v>
+        <v>160857.404064464</v>
       </c>
       <c r="C48" t="n">
-        <v>24451.8464614906</v>
+        <v>469.584905577334</v>
       </c>
       <c r="D48" t="n">
-        <v>6316.10848515479</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>299221.33250357</v>
+        <v>1192948.69125335</v>
       </c>
       <c r="F48" t="n">
-        <v>449382.338388157</v>
+        <v>2008128.75125297</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>92955</v>
       </c>
       <c r="I48" t="n">
-        <v>19283.9082106161</v>
+        <v>67902.4040644639</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>78245.8816889244</v>
+        <v>127122.545706426</v>
       </c>
       <c r="C49" t="n">
-        <v>12318.5278828141</v>
+        <v>2.47297933419781</v>
       </c>
       <c r="D49" t="n">
-        <v>1809.98492418976</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>235761.245942212</v>
+        <v>1066705.57412622</v>
       </c>
       <c r="F49" t="n">
-        <v>367909.211781271</v>
+        <v>1840268.97106652</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>46150</v>
       </c>
       <c r="I49" t="n">
-        <v>32095.8816889244</v>
+        <v>80972.5457064258</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/HFMD.xlsx
+++ b/outcome/appendix/forecast/HFMD.xlsx
@@ -427,7 +427,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>40818.042910086</v>
+        <v>41876.3648801867</v>
       </c>
       <c r="C2" t="n">
         <v>16969.3413389773</v>
@@ -436,10 +436,10 @@
         <v>11799.1096832131</v>
       </c>
       <c r="E2" t="n">
-        <v>91580.800353859</v>
+        <v>96698.8092201677</v>
       </c>
       <c r="F2" t="n">
-        <v>109991.305899868</v>
+        <v>115656.720208955</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>28355</v>
       </c>
       <c r="I2" t="n">
-        <v>12463.042910086</v>
+        <v>13521.3648801867</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,7 +459,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>27123.3059108151</v>
+        <v>27498.4615932094</v>
       </c>
       <c r="C3" t="n">
         <v>3029.84599671253</v>
@@ -468,10 +468,10 @@
         <v>1047.12759951786</v>
       </c>
       <c r="E3" t="n">
-        <v>106617.546434718</v>
+        <v>107065.401764351</v>
       </c>
       <c r="F3" t="n">
-        <v>135700.866561421</v>
+        <v>135890.5330414</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>3263</v>
       </c>
       <c r="I3" t="n">
-        <v>23860.3059108151</v>
+        <v>24235.4615932094</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,7 +491,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>48825.067791414</v>
+        <v>46566.7100896596</v>
       </c>
       <c r="C4" t="n">
         <v>11293.5985326989</v>
@@ -500,10 +500,10 @@
         <v>5224.22035001796</v>
       </c>
       <c r="E4" t="n">
-        <v>118993.31721143</v>
+        <v>106807.58639617</v>
       </c>
       <c r="F4" t="n">
-        <v>149585.235931885</v>
+        <v>146684.308106586</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>2869</v>
       </c>
       <c r="I4" t="n">
-        <v>45956.067791414</v>
+        <v>43697.7100896596</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,7 +523,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>132442.004735931</v>
+        <v>125684.134140611</v>
       </c>
       <c r="C5" t="n">
         <v>53361.7669474565</v>
@@ -544,7 +544,7 @@
         <v>3001</v>
       </c>
       <c r="I5" t="n">
-        <v>129441.004735931</v>
+        <v>122683.134140611</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,13 +555,13 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>258161.128878756</v>
+        <v>248798.752007555</v>
       </c>
       <c r="C6" t="n">
-        <v>124914.982993537</v>
+        <v>112100.807916015</v>
       </c>
       <c r="D6" t="n">
-        <v>84280.3201959349</v>
+        <v>82553.6475778845</v>
       </c>
       <c r="E6" t="n">
         <v>490492.591485906</v>
@@ -576,7 +576,7 @@
         <v>3919</v>
       </c>
       <c r="I6" t="n">
-        <v>254242.128878756</v>
+        <v>244879.752007555</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,7 +587,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>297249.544712104</v>
+        <v>295382.559620346</v>
       </c>
       <c r="C7" t="n">
         <v>139467.571233064</v>
@@ -608,7 +608,7 @@
         <v>6260</v>
       </c>
       <c r="I7" t="n">
-        <v>290989.544712104</v>
+        <v>289122.559620346</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,7 +619,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>253146.64626667</v>
+        <v>262103.083603862</v>
       </c>
       <c r="C8" t="n">
         <v>97563.460311081</v>
@@ -640,7 +640,7 @@
         <v>59143</v>
       </c>
       <c r="I8" t="n">
-        <v>194003.64626667</v>
+        <v>202960.083603862</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,7 +651,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>156469.94900374</v>
+        <v>171848.803124517</v>
       </c>
       <c r="C9" t="n">
         <v>37221.7075011407</v>
@@ -660,7 +660,7 @@
         <v>15832.917725148</v>
       </c>
       <c r="E9" t="n">
-        <v>327212.782412879</v>
+        <v>371990.868996217</v>
       </c>
       <c r="F9" t="n">
         <v>440637.388400578</v>
@@ -672,7 +672,7 @@
         <v>59143</v>
       </c>
       <c r="I9" t="n">
-        <v>97326.9490037398</v>
+        <v>112705.803124517</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,7 +683,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>153359.096712315</v>
+        <v>154835.519854294</v>
       </c>
       <c r="C10" t="n">
         <v>37904.9116323652</v>
@@ -704,7 +704,7 @@
         <v>115170</v>
       </c>
       <c r="I10" t="n">
-        <v>38189.0967123155</v>
+        <v>39665.519854294</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,7 +715,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>139994.219979486</v>
+        <v>139346.099948251</v>
       </c>
       <c r="C11" t="n">
         <v>33218.8968236763</v>
@@ -736,7 +736,7 @@
         <v>199875</v>
       </c>
       <c r="I11" t="n">
-        <v>-59880.780020514</v>
+        <v>-60528.9000517486</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,7 +747,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>116688.759912146</v>
+        <v>118956.352470534</v>
       </c>
       <c r="C12" t="n">
         <v>20796.1861955972</v>
@@ -768,7 +768,7 @@
         <v>189017</v>
       </c>
       <c r="I12" t="n">
-        <v>-72328.2400878536</v>
+        <v>-70060.6475294656</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,7 +779,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>86721.9179422011</v>
+        <v>92640.4797161837</v>
       </c>
       <c r="C13" t="n">
         <v>9900.15329465601</v>
@@ -800,7 +800,7 @@
         <v>131798</v>
       </c>
       <c r="I13" t="n">
-        <v>-45076.0820577989</v>
+        <v>-39157.5202838163</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -811,7 +811,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>50454.5508122049</v>
+        <v>57838.7201634386</v>
       </c>
       <c r="C14" t="n">
         <v>1451.38074800366</v>
@@ -832,7 +832,7 @@
         <v>63209</v>
       </c>
       <c r="I14" t="n">
-        <v>-12754.4491877951</v>
+        <v>-5370.27983656144</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,7 +843,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>29516.4615028746</v>
+        <v>33627.1544384413</v>
       </c>
       <c r="C15" t="n">
         <v>0.0666228425815785</v>
@@ -864,7 +864,7 @@
         <v>18529</v>
       </c>
       <c r="I15" t="n">
-        <v>10987.4615028746</v>
+        <v>15098.1544384413</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,7 +875,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>59253.1789248169</v>
+        <v>52757.7892403959</v>
       </c>
       <c r="C16" t="n">
         <v>1155.9204430413</v>
@@ -896,7 +896,7 @@
         <v>36206</v>
       </c>
       <c r="I16" t="n">
-        <v>23047.1789248169</v>
+        <v>16551.7892403959</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,7 +907,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>154596.032677217</v>
+        <v>136960.256965505</v>
       </c>
       <c r="C17" t="n">
         <v>19776.7590418918</v>
@@ -928,10 +928,10 @@
         <v>144167</v>
       </c>
       <c r="I17" t="n">
-        <v>10429.0326772172</v>
+        <v>-7206.74303449484</v>
       </c>
       <c r="J17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -939,7 +939,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>288026.917783123</v>
+        <v>263505.875779251</v>
       </c>
       <c r="C18" t="n">
         <v>65076.5351090309</v>
@@ -960,7 +960,7 @@
         <v>240838</v>
       </c>
       <c r="I18" t="n">
-        <v>47188.9177831233</v>
+        <v>22667.8757792508</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,7 +971,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>325074.487408575</v>
+        <v>314036.606287151</v>
       </c>
       <c r="C19" t="n">
         <v>77356.3530865548</v>
@@ -992,7 +992,7 @@
         <v>224426</v>
       </c>
       <c r="I19" t="n">
-        <v>100648.487408575</v>
+        <v>89610.6062871513</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,7 +1003,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>272810.224844852</v>
+        <v>286350.637392849</v>
       </c>
       <c r="C20" t="n">
         <v>51117.9441410542</v>
@@ -1024,7 +1024,7 @@
         <v>162987</v>
       </c>
       <c r="I20" t="n">
-        <v>109823.224844852</v>
+        <v>123363.637392849</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,7 +1035,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>167539.932700804</v>
+        <v>188441.923958985</v>
       </c>
       <c r="C21" t="n">
         <v>14876.9013203059</v>
@@ -1056,7 +1056,7 @@
         <v>71283</v>
       </c>
       <c r="I21" t="n">
-        <v>96256.9327008041</v>
+        <v>117158.923958985</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,7 +1067,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>165087.766767776</v>
+        <v>168534.946337614</v>
       </c>
       <c r="C22" t="n">
         <v>15873.1778253594</v>
@@ -1088,7 +1088,7 @@
         <v>86635</v>
       </c>
       <c r="I22" t="n">
-        <v>78452.7667677758</v>
+        <v>81899.9463376144</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,7 +1099,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>151158.423248932</v>
+        <v>149086.540108256</v>
       </c>
       <c r="C23" t="n">
         <v>13735.3165220967</v>
@@ -1120,7 +1120,7 @@
         <v>132070</v>
       </c>
       <c r="I23" t="n">
-        <v>19088.423248932</v>
+        <v>17016.5401082555</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,7 +1131,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>129167.332911146</v>
+        <v>130596.52247905</v>
       </c>
       <c r="C24" t="n">
         <v>7367.6976223084</v>
@@ -1152,7 +1152,7 @@
         <v>113473</v>
       </c>
       <c r="I24" t="n">
-        <v>15694.3329111463</v>
+        <v>17123.5224790497</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,7 +1163,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>97752.8789037603</v>
+        <v>108057.271994653</v>
       </c>
       <c r="C25" t="n">
         <v>2459.40366549666</v>
@@ -1184,7 +1184,7 @@
         <v>74421</v>
       </c>
       <c r="I25" t="n">
-        <v>23331.8789037603</v>
+        <v>33636.2719946527</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,7 +1195,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>57793.6040910923</v>
+        <v>73976.4506348854</v>
       </c>
       <c r="C26" t="n">
         <v>27.3346761133149</v>
@@ -1216,7 +1216,7 @@
         <v>44183</v>
       </c>
       <c r="I26" t="n">
-        <v>13610.6040910923</v>
+        <v>29793.4506348854</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,7 +1227,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>33326.2543472187</v>
+        <v>43631.639282736</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1248,7 +1248,7 @@
         <v>18134</v>
       </c>
       <c r="I27" t="n">
-        <v>15192.2543472187</v>
+        <v>25497.639282736</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,7 +1259,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>68243.6312986068</v>
+        <v>60269.6588007294</v>
       </c>
       <c r="C28" t="n">
         <v>16.551143429864</v>
@@ -1280,7 +1280,7 @@
         <v>33287</v>
       </c>
       <c r="I28" t="n">
-        <v>34956.6312986068</v>
+        <v>26982.6588007294</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,7 +1291,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>172886.107111505</v>
+        <v>150394.25460422</v>
       </c>
       <c r="C29" t="n">
         <v>8025.97219429125</v>
@@ -1312,7 +1312,7 @@
         <v>44794</v>
       </c>
       <c r="I29" t="n">
-        <v>128092.107111505</v>
+        <v>105600.25460422</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,7 +1323,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>313795.920255571</v>
+        <v>284568.332300173</v>
       </c>
       <c r="C30" t="n">
         <v>37887.15521905</v>
@@ -1344,7 +1344,7 @@
         <v>70042</v>
       </c>
       <c r="I30" t="n">
-        <v>243753.920255571</v>
+        <v>214526.332300173</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,7 +1355,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>350411.044489776</v>
+        <v>338826.222817409</v>
       </c>
       <c r="C31" t="n">
         <v>47231.5118673195</v>
@@ -1376,7 +1376,7 @@
         <v>140661</v>
       </c>
       <c r="I31" t="n">
-        <v>209750.044489776</v>
+        <v>198165.222817409</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,7 +1387,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>292238.051167772</v>
+        <v>311091.420382998</v>
       </c>
       <c r="C32" t="n">
         <v>28979.0037320135</v>
@@ -1408,7 +1408,7 @@
         <v>108973</v>
       </c>
       <c r="I32" t="n">
-        <v>183265.051167772</v>
+        <v>202118.420382998</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,7 +1419,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>179448.18040895</v>
+        <v>206278.57541389</v>
       </c>
       <c r="C33" t="n">
         <v>5936.0547578556</v>
@@ -1440,7 +1440,7 @@
         <v>54528</v>
       </c>
       <c r="I33" t="n">
-        <v>124920.18040895</v>
+        <v>151750.57541389</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,7 +1451,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>177269.191719826</v>
+        <v>182691.287931286</v>
       </c>
       <c r="C34" t="n">
         <v>6624.73695444284</v>
@@ -1472,7 +1472,7 @@
         <v>44872</v>
       </c>
       <c r="I34" t="n">
-        <v>132397.191719826</v>
+        <v>137819.287931286</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,7 +1483,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>165212.043904712</v>
+        <v>162747.055037124</v>
       </c>
       <c r="C35" t="n">
         <v>5536.35507267767</v>
@@ -1504,7 +1504,7 @@
         <v>47395</v>
       </c>
       <c r="I35" t="n">
-        <v>117817.043904712</v>
+        <v>115352.055037124</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,7 +1515,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>144308.611421153</v>
+        <v>144881.238831924</v>
       </c>
       <c r="C36" t="n">
         <v>2299.76561530569</v>
@@ -1536,7 +1536,7 @@
         <v>50633</v>
       </c>
       <c r="I36" t="n">
-        <v>93675.6114211527</v>
+        <v>94248.238831924</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,7 +1547,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>111748.301033135</v>
+        <v>121135.399212847</v>
       </c>
       <c r="C37" t="n">
         <v>362.470853275504</v>
@@ -1568,7 +1568,7 @@
         <v>27747</v>
       </c>
       <c r="I37" t="n">
-        <v>84001.301033135</v>
+        <v>93388.3992128469</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,7 +1579,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>68118.8211009642</v>
+        <v>84504.2911625022</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1600,7 +1600,7 @@
         <v>2484</v>
       </c>
       <c r="I38" t="n">
-        <v>65634.8211009642</v>
+        <v>82020.2911625022</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,7 +1611,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>39979.494963539</v>
+        <v>53522.3894208592</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1632,7 +1632,7 @@
         <v>3935</v>
       </c>
       <c r="I39" t="n">
-        <v>36044.494963539</v>
+        <v>49587.3894208592</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,7 +1643,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>78199.3178494901</v>
+        <v>71924.0476560869</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>9631</v>
       </c>
       <c r="I40" t="n">
-        <v>68568.3178494901</v>
+        <v>62293.0476560869</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1675,7 +1675,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>189517.694717563</v>
+        <v>167517.152099575</v>
       </c>
       <c r="C41" t="n">
         <v>2906.17593480596</v>
@@ -1696,7 +1696,7 @@
         <v>20105</v>
       </c>
       <c r="I41" t="n">
-        <v>169412.694717563</v>
+        <v>147412.152099575</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1707,7 +1707,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>336617.372550921</v>
+        <v>305957.811928176</v>
       </c>
       <c r="C42" t="n">
         <v>22332.6835203763</v>
@@ -1728,7 +1728,7 @@
         <v>91259</v>
       </c>
       <c r="I42" t="n">
-        <v>245358.372550921</v>
+        <v>214698.811928176</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1739,7 +1739,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>375090.491909221</v>
+        <v>356991.938167909</v>
       </c>
       <c r="C43" t="n">
         <v>29305.9571781386</v>
@@ -1760,7 +1760,7 @@
         <v>433084</v>
       </c>
       <c r="I43" t="n">
-        <v>-57993.5080907785</v>
+        <v>-76092.0618320913</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1771,7 +1771,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>315360.342342879</v>
+        <v>326893.430571655</v>
       </c>
       <c r="C44" t="n">
         <v>16393.7910800158</v>
@@ -1792,7 +1792,7 @@
         <v>457212</v>
       </c>
       <c r="I44" t="n">
-        <v>-141851.657657121</v>
+        <v>-130318.569428345</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,7 +1803,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>195741.1886999</v>
+        <v>221885.722752484</v>
       </c>
       <c r="C45" t="n">
         <v>2012.82683996765</v>
@@ -1824,7 +1824,7 @@
         <v>193538</v>
       </c>
       <c r="I45" t="n">
-        <v>2203.18869990038</v>
+        <v>28347.7227524836</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1835,7 +1835,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>193076.394941924</v>
+        <v>201293.5696612</v>
       </c>
       <c r="C46" t="n">
         <v>2401.15841797127</v>
@@ -1856,7 +1856,7 @@
         <v>166980</v>
       </c>
       <c r="I46" t="n">
-        <v>26096.3949419236</v>
+        <v>34313.5696612001</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1867,7 +1867,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>181345.479967299</v>
+        <v>179890.815172356</v>
       </c>
       <c r="C47" t="n">
         <v>1879.72362453686</v>
@@ -1888,7 +1888,7 @@
         <v>165527</v>
       </c>
       <c r="I47" t="n">
-        <v>15818.4799672989</v>
+        <v>14363.8151723563</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1899,7 +1899,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>160857.404064464</v>
+        <v>160502.748528239</v>
       </c>
       <c r="C48" t="n">
         <v>469.584905577334</v>
@@ -1920,7 +1920,7 @@
         <v>92955</v>
       </c>
       <c r="I48" t="n">
-        <v>67902.4040644639</v>
+        <v>67547.7485282389</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1931,7 +1931,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>127122.545706426</v>
+        <v>134652.984822761</v>
       </c>
       <c r="C49" t="n">
         <v>2.47297933419781</v>
@@ -1952,7 +1952,7 @@
         <v>46150</v>
       </c>
       <c r="I49" t="n">
-        <v>80972.5457064258</v>
+        <v>88502.984822761</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>
